--- a/Tools/LIFEnet/NXr_Events scenario_005 All Active at once clear at once.xlsx
+++ b/Tools/LIFEnet/NXr_Events scenario_005 All Active at once clear at once.xlsx
@@ -298,7 +298,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1152" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1116" uniqueCount="235">
   <si>
     <t>PointId</t>
   </si>
@@ -1012,16 +1012,13 @@
   </si>
   <si>
     <t>same as ev 593 datapoint 4135</t>
-  </si>
-  <si>
-    <t>Dummy PointID for continuity</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1040,13 +1037,6 @@
     <font>
       <b/>
       <sz val="12"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1231,7 +1221,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -1277,12 +1267,9 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1295,7 +1282,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1382,7 +1369,10 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -12568,10 +12558,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K132"/>
+  <dimension ref="A1:K128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="I67" sqref="I67:I132"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="G50" sqref="G50:G63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12590,33 +12580,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="F1" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="26" t="s">
+      <c r="G1" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="25" t="s">
+      <c r="H1" s="24" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="4" customFormat="1" ht="33" customHeight="1">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="17" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -12631,7 +12621,7 @@
       <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="17" t="s">
         <v>4</v>
       </c>
       <c r="G2" s="14" t="s">
@@ -12668,19 +12658,19 @@
       <c r="F3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="16">
+      <c r="G3" s="15">
         <v>19</v>
       </c>
-      <c r="H3" s="17">
+      <c r="H3" s="16">
         <v>0</v>
       </c>
-      <c r="I3" s="17">
+      <c r="I3" s="16">
         <v>1</v>
       </c>
-      <c r="J3" s="17" t="s">
+      <c r="J3" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="K3" s="16" t="s">
+      <c r="K3" s="15" t="s">
         <v>15</v>
       </c>
     </row>
@@ -12702,19 +12692,19 @@
       <c r="F4" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="16">
+      <c r="G4" s="15">
         <v>19</v>
       </c>
-      <c r="H4" s="17">
+      <c r="H4" s="16">
         <v>0</v>
       </c>
-      <c r="I4" s="17">
+      <c r="I4" s="16">
         <v>1</v>
       </c>
-      <c r="J4" s="17" t="s">
+      <c r="J4" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="K4" s="16" t="s">
+      <c r="K4" s="15" t="s">
         <v>15</v>
       </c>
     </row>
@@ -12734,19 +12724,19 @@
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="8"/>
-      <c r="G5" s="16">
+      <c r="G5" s="15">
         <v>19</v>
       </c>
-      <c r="H5" s="17">
+      <c r="H5" s="16">
         <v>0</v>
       </c>
-      <c r="I5" s="17">
+      <c r="I5" s="16">
         <v>1</v>
       </c>
-      <c r="J5" s="17" t="s">
+      <c r="J5" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="K5" s="16" t="s">
+      <c r="K5" s="15" t="s">
         <v>15</v>
       </c>
     </row>
@@ -12766,19 +12756,19 @@
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="8"/>
-      <c r="G6" s="16">
+      <c r="G6" s="15">
         <v>19</v>
       </c>
-      <c r="H6" s="17">
+      <c r="H6" s="16">
         <v>0</v>
       </c>
-      <c r="I6" s="17">
+      <c r="I6" s="16">
         <v>1</v>
       </c>
-      <c r="J6" s="17" t="s">
+      <c r="J6" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="K6" s="16" t="s">
+      <c r="K6" s="15" t="s">
         <v>15</v>
       </c>
     </row>
@@ -12800,19 +12790,19 @@
       <c r="F7" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="G7" s="16">
+      <c r="G7" s="15">
         <v>19</v>
       </c>
-      <c r="H7" s="17">
+      <c r="H7" s="16">
         <v>0</v>
       </c>
-      <c r="I7" s="17">
+      <c r="I7" s="16">
         <v>1</v>
       </c>
-      <c r="J7" s="17" t="s">
+      <c r="J7" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="K7" s="16" t="s">
+      <c r="K7" s="15" t="s">
         <v>15</v>
       </c>
     </row>
@@ -12834,19 +12824,19 @@
       <c r="F8" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="16">
+      <c r="G8" s="15">
         <v>19</v>
       </c>
-      <c r="H8" s="17">
+      <c r="H8" s="16">
         <v>0</v>
       </c>
-      <c r="I8" s="17">
+      <c r="I8" s="16">
         <v>1</v>
       </c>
-      <c r="J8" s="17" t="s">
+      <c r="J8" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="K8" s="16" t="s">
+      <c r="K8" s="15" t="s">
         <v>15</v>
       </c>
     </row>
@@ -12868,19 +12858,19 @@
       <c r="F9" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="16">
+      <c r="G9" s="15">
         <v>19</v>
       </c>
-      <c r="H9" s="17">
+      <c r="H9" s="16">
         <v>0</v>
       </c>
-      <c r="I9" s="17">
+      <c r="I9" s="16">
         <v>1</v>
       </c>
-      <c r="J9" s="17" t="s">
+      <c r="J9" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="K9" s="16" t="s">
+      <c r="K9" s="15" t="s">
         <v>15</v>
       </c>
     </row>
@@ -12902,19 +12892,19 @@
       <c r="F10" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="G10" s="16">
+      <c r="G10" s="15">
         <v>19</v>
       </c>
-      <c r="H10" s="17">
+      <c r="H10" s="16">
         <v>0</v>
       </c>
-      <c r="I10" s="17">
+      <c r="I10" s="16">
         <v>1</v>
       </c>
-      <c r="J10" s="17" t="s">
+      <c r="J10" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="K10" s="16" t="s">
+      <c r="K10" s="15" t="s">
         <v>15</v>
       </c>
     </row>
@@ -12934,19 +12924,19 @@
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="8"/>
-      <c r="G11" s="16">
+      <c r="G11" s="15">
         <v>19</v>
       </c>
-      <c r="H11" s="17">
+      <c r="H11" s="16">
         <v>0</v>
       </c>
-      <c r="I11" s="17">
+      <c r="I11" s="16">
         <v>1</v>
       </c>
-      <c r="J11" s="17" t="s">
+      <c r="J11" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="K11" s="16" t="s">
+      <c r="K11" s="15" t="s">
         <v>15</v>
       </c>
     </row>
@@ -12966,19 +12956,19 @@
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="8"/>
-      <c r="G12" s="16">
+      <c r="G12" s="15">
         <v>19</v>
       </c>
-      <c r="H12" s="17">
+      <c r="H12" s="16">
         <v>0</v>
       </c>
-      <c r="I12" s="17">
+      <c r="I12" s="16">
         <v>1</v>
       </c>
-      <c r="J12" s="17" t="s">
+      <c r="J12" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="K12" s="16" t="s">
+      <c r="K12" s="15" t="s">
         <v>15</v>
       </c>
     </row>
@@ -12998,19 +12988,19 @@
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="8"/>
-      <c r="G13" s="16">
+      <c r="G13" s="15">
         <v>19</v>
       </c>
-      <c r="H13" s="17">
+      <c r="H13" s="16">
         <v>0</v>
       </c>
-      <c r="I13" s="17">
+      <c r="I13" s="16">
         <v>1</v>
       </c>
-      <c r="J13" s="17" t="s">
+      <c r="J13" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="K13" s="16" t="s">
+      <c r="K13" s="15" t="s">
         <v>15</v>
       </c>
     </row>
@@ -13032,19 +13022,19 @@
       <c r="F14" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="G14" s="16">
+      <c r="G14" s="15">
         <v>19</v>
       </c>
-      <c r="H14" s="17">
+      <c r="H14" s="16">
         <v>0</v>
       </c>
-      <c r="I14" s="17">
+      <c r="I14" s="16">
         <v>1</v>
       </c>
-      <c r="J14" s="17" t="s">
+      <c r="J14" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="K14" s="16" t="s">
+      <c r="K14" s="15" t="s">
         <v>15</v>
       </c>
     </row>
@@ -13064,19 +13054,19 @@
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="8"/>
-      <c r="G15" s="16">
+      <c r="G15" s="15">
         <v>19</v>
       </c>
-      <c r="H15" s="17">
+      <c r="H15" s="16">
         <v>0</v>
       </c>
-      <c r="I15" s="17">
+      <c r="I15" s="16">
         <v>1</v>
       </c>
-      <c r="J15" s="17" t="s">
+      <c r="J15" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="K15" s="16" t="s">
+      <c r="K15" s="15" t="s">
         <v>15</v>
       </c>
     </row>
@@ -13098,19 +13088,19 @@
       <c r="F16" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="G16" s="16">
+      <c r="G16" s="15">
         <v>19</v>
       </c>
-      <c r="H16" s="17">
+      <c r="H16" s="16">
         <v>0</v>
       </c>
-      <c r="I16" s="17">
+      <c r="I16" s="16">
         <v>1</v>
       </c>
-      <c r="J16" s="17" t="s">
+      <c r="J16" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="K16" s="16" t="s">
+      <c r="K16" s="15" t="s">
         <v>15</v>
       </c>
     </row>
@@ -13132,19 +13122,19 @@
       <c r="F17" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="G17" s="16">
+      <c r="G17" s="15">
         <v>19</v>
       </c>
-      <c r="H17" s="17">
+      <c r="H17" s="16">
         <v>0</v>
       </c>
-      <c r="I17" s="17">
+      <c r="I17" s="16">
         <v>1</v>
       </c>
-      <c r="J17" s="17" t="s">
+      <c r="J17" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="K17" s="16" t="s">
+      <c r="K17" s="15" t="s">
         <v>15</v>
       </c>
     </row>
@@ -13166,19 +13156,19 @@
       <c r="F18" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="G18" s="16">
+      <c r="G18" s="15">
         <v>19</v>
       </c>
-      <c r="H18" s="17">
+      <c r="H18" s="16">
         <v>0</v>
       </c>
-      <c r="I18" s="17">
+      <c r="I18" s="16">
         <v>1</v>
       </c>
-      <c r="J18" s="17" t="s">
+      <c r="J18" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="K18" s="16" t="s">
+      <c r="K18" s="15" t="s">
         <v>15</v>
       </c>
     </row>
@@ -13202,19 +13192,19 @@
       <c r="F19" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="G19" s="16">
+      <c r="G19" s="15">
         <v>19</v>
       </c>
-      <c r="H19" s="17">
+      <c r="H19" s="16">
         <v>0</v>
       </c>
-      <c r="I19" s="17">
+      <c r="I19" s="16">
         <v>1</v>
       </c>
-      <c r="J19" s="17" t="s">
+      <c r="J19" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="K19" s="16" t="s">
+      <c r="K19" s="15" t="s">
         <v>15</v>
       </c>
     </row>
@@ -13238,19 +13228,19 @@
       <c r="F20" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="G20" s="16">
+      <c r="G20" s="15">
         <v>19</v>
       </c>
-      <c r="H20" s="17">
+      <c r="H20" s="16">
         <v>0</v>
       </c>
-      <c r="I20" s="17">
+      <c r="I20" s="16">
         <v>1</v>
       </c>
-      <c r="J20" s="17" t="s">
+      <c r="J20" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="K20" s="16" t="s">
+      <c r="K20" s="15" t="s">
         <v>15</v>
       </c>
     </row>
@@ -13274,19 +13264,19 @@
       <c r="F21" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="G21" s="16">
+      <c r="G21" s="15">
         <v>19</v>
       </c>
-      <c r="H21" s="17">
+      <c r="H21" s="16">
         <v>0</v>
       </c>
-      <c r="I21" s="17">
+      <c r="I21" s="16">
         <v>1</v>
       </c>
-      <c r="J21" s="17" t="s">
+      <c r="J21" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="K21" s="16" t="s">
+      <c r="K21" s="15" t="s">
         <v>15</v>
       </c>
     </row>
@@ -13308,19 +13298,19 @@
       <c r="F22" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="G22" s="16">
+      <c r="G22" s="15">
         <v>19</v>
       </c>
-      <c r="H22" s="17">
+      <c r="H22" s="16">
         <v>0</v>
       </c>
-      <c r="I22" s="17">
+      <c r="I22" s="16">
         <v>1</v>
       </c>
-      <c r="J22" s="17" t="s">
+      <c r="J22" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="K22" s="16" t="s">
+      <c r="K22" s="15" t="s">
         <v>15</v>
       </c>
     </row>
@@ -13342,19 +13332,19 @@
       <c r="F23" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="G23" s="16">
+      <c r="G23" s="15">
         <v>19</v>
       </c>
-      <c r="H23" s="17">
+      <c r="H23" s="16">
         <v>0</v>
       </c>
-      <c r="I23" s="17">
+      <c r="I23" s="16">
         <v>1</v>
       </c>
-      <c r="J23" s="17" t="s">
+      <c r="J23" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="K23" s="16" t="s">
+      <c r="K23" s="15" t="s">
         <v>15</v>
       </c>
     </row>
@@ -13376,19 +13366,19 @@
       <c r="F24" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="G24" s="16">
+      <c r="G24" s="15">
         <v>19</v>
       </c>
-      <c r="H24" s="17">
+      <c r="H24" s="16">
         <v>0</v>
       </c>
-      <c r="I24" s="17">
+      <c r="I24" s="16">
         <v>1</v>
       </c>
-      <c r="J24" s="17" t="s">
+      <c r="J24" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="K24" s="16" t="s">
+      <c r="K24" s="15" t="s">
         <v>15</v>
       </c>
     </row>
@@ -13410,19 +13400,19 @@
       <c r="F25" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="G25" s="16">
+      <c r="G25" s="15">
         <v>19</v>
       </c>
-      <c r="H25" s="17">
+      <c r="H25" s="16">
         <v>0</v>
       </c>
-      <c r="I25" s="17">
+      <c r="I25" s="16">
         <v>1</v>
       </c>
-      <c r="J25" s="17" t="s">
+      <c r="J25" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="K25" s="16" t="s">
+      <c r="K25" s="15" t="s">
         <v>15</v>
       </c>
     </row>
@@ -13444,19 +13434,19 @@
       <c r="F26" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="G26" s="16">
+      <c r="G26" s="15">
         <v>19</v>
       </c>
-      <c r="H26" s="17">
+      <c r="H26" s="16">
         <v>0</v>
       </c>
-      <c r="I26" s="17">
+      <c r="I26" s="16">
         <v>1</v>
       </c>
-      <c r="J26" s="17" t="s">
+      <c r="J26" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="K26" s="16" t="s">
+      <c r="K26" s="15" t="s">
         <v>15</v>
       </c>
     </row>
@@ -13478,19 +13468,19 @@
       <c r="F27" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="G27" s="16">
+      <c r="G27" s="15">
         <v>19</v>
       </c>
-      <c r="H27" s="17">
+      <c r="H27" s="16">
         <v>0</v>
       </c>
-      <c r="I27" s="17">
+      <c r="I27" s="16">
         <v>1</v>
       </c>
-      <c r="J27" s="17" t="s">
+      <c r="J27" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="K27" s="16" t="s">
+      <c r="K27" s="15" t="s">
         <v>15</v>
       </c>
     </row>
@@ -13512,19 +13502,19 @@
         <v>98</v>
       </c>
       <c r="F28" s="8"/>
-      <c r="G28" s="16">
+      <c r="G28" s="15">
         <v>19</v>
       </c>
-      <c r="H28" s="17">
+      <c r="H28" s="16">
         <v>0</v>
       </c>
-      <c r="I28" s="17">
+      <c r="I28" s="16">
         <v>1</v>
       </c>
-      <c r="J28" s="17" t="s">
+      <c r="J28" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="K28" s="16" t="s">
+      <c r="K28" s="15" t="s">
         <v>15</v>
       </c>
     </row>
@@ -13544,19 +13534,19 @@
       </c>
       <c r="E29" s="5"/>
       <c r="F29" s="8"/>
-      <c r="G29" s="16">
+      <c r="G29" s="15">
         <v>19</v>
       </c>
-      <c r="H29" s="17">
+      <c r="H29" s="16">
         <v>0</v>
       </c>
-      <c r="I29" s="17">
+      <c r="I29" s="16">
         <v>1</v>
       </c>
-      <c r="J29" s="17" t="s">
+      <c r="J29" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="K29" s="16" t="s">
+      <c r="K29" s="15" t="s">
         <v>15</v>
       </c>
     </row>
@@ -13578,19 +13568,19 @@
       <c r="F30" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="G30" s="16">
+      <c r="G30" s="15">
         <v>19</v>
       </c>
-      <c r="H30" s="17">
+      <c r="H30" s="16">
         <v>0</v>
       </c>
-      <c r="I30" s="17">
+      <c r="I30" s="16">
         <v>1</v>
       </c>
-      <c r="J30" s="17" t="s">
+      <c r="J30" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="K30" s="16" t="s">
+      <c r="K30" s="15" t="s">
         <v>15</v>
       </c>
     </row>
@@ -13612,19 +13602,19 @@
       <c r="F31" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="G31" s="16">
+      <c r="G31" s="15">
         <v>19</v>
       </c>
-      <c r="H31" s="17">
+      <c r="H31" s="16">
         <v>0</v>
       </c>
-      <c r="I31" s="17">
+      <c r="I31" s="16">
         <v>1</v>
       </c>
-      <c r="J31" s="17" t="s">
+      <c r="J31" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="K31" s="16" t="s">
+      <c r="K31" s="15" t="s">
         <v>15</v>
       </c>
     </row>
@@ -13646,19 +13636,19 @@
       <c r="F32" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="G32" s="16">
+      <c r="G32" s="15">
         <v>19</v>
       </c>
-      <c r="H32" s="17">
+      <c r="H32" s="16">
         <v>0</v>
       </c>
-      <c r="I32" s="17">
+      <c r="I32" s="16">
         <v>1</v>
       </c>
-      <c r="J32" s="17" t="s">
+      <c r="J32" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="K32" s="16" t="s">
+      <c r="K32" s="15" t="s">
         <v>15</v>
       </c>
     </row>
@@ -13680,19 +13670,19 @@
       <c r="F33" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="G33" s="16">
+      <c r="G33" s="15">
         <v>19</v>
       </c>
-      <c r="H33" s="17">
+      <c r="H33" s="16">
         <v>0</v>
       </c>
-      <c r="I33" s="17">
+      <c r="I33" s="16">
         <v>1</v>
       </c>
-      <c r="J33" s="17" t="s">
+      <c r="J33" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="K33" s="16" t="s">
+      <c r="K33" s="15" t="s">
         <v>15</v>
       </c>
     </row>
@@ -13714,19 +13704,19 @@
       <c r="F34" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="G34" s="16">
+      <c r="G34" s="15">
         <v>19</v>
       </c>
-      <c r="H34" s="17">
+      <c r="H34" s="16">
         <v>0</v>
       </c>
-      <c r="I34" s="17">
+      <c r="I34" s="16">
         <v>1</v>
       </c>
-      <c r="J34" s="17" t="s">
+      <c r="J34" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="K34" s="16" t="s">
+      <c r="K34" s="15" t="s">
         <v>15</v>
       </c>
     </row>
@@ -13746,19 +13736,19 @@
       </c>
       <c r="E35" s="5"/>
       <c r="F35" s="8"/>
-      <c r="G35" s="16">
+      <c r="G35" s="15">
         <v>19</v>
       </c>
-      <c r="H35" s="17">
+      <c r="H35" s="16">
         <v>0</v>
       </c>
-      <c r="I35" s="17">
+      <c r="I35" s="16">
         <v>1</v>
       </c>
-      <c r="J35" s="17" t="s">
+      <c r="J35" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="K35" s="16" t="s">
+      <c r="K35" s="15" t="s">
         <v>15</v>
       </c>
     </row>
@@ -13780,19 +13770,19 @@
       <c r="F36" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="G36" s="16">
+      <c r="G36" s="15">
         <v>19</v>
       </c>
-      <c r="H36" s="17">
+      <c r="H36" s="16">
         <v>0</v>
       </c>
-      <c r="I36" s="17">
+      <c r="I36" s="16">
         <v>1</v>
       </c>
-      <c r="J36" s="17" t="s">
+      <c r="J36" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="K36" s="16" t="s">
+      <c r="K36" s="15" t="s">
         <v>15</v>
       </c>
     </row>
@@ -13816,19 +13806,19 @@
       <c r="F37" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="G37" s="16">
+      <c r="G37" s="15">
         <v>19</v>
       </c>
-      <c r="H37" s="17">
+      <c r="H37" s="16">
         <v>0</v>
       </c>
-      <c r="I37" s="17">
+      <c r="I37" s="16">
         <v>1</v>
       </c>
-      <c r="J37" s="17" t="s">
+      <c r="J37" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="K37" s="16" t="s">
+      <c r="K37" s="15" t="s">
         <v>15</v>
       </c>
     </row>
@@ -13848,19 +13838,19 @@
       </c>
       <c r="E38" s="5"/>
       <c r="F38" s="8"/>
-      <c r="G38" s="16">
+      <c r="G38" s="15">
         <v>19</v>
       </c>
-      <c r="H38" s="17">
+      <c r="H38" s="16">
         <v>0</v>
       </c>
-      <c r="I38" s="17">
+      <c r="I38" s="16">
         <v>1</v>
       </c>
-      <c r="J38" s="17" t="s">
+      <c r="J38" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="K38" s="16" t="s">
+      <c r="K38" s="15" t="s">
         <v>15</v>
       </c>
     </row>
@@ -13882,19 +13872,19 @@
       <c r="F39" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="G39" s="16">
+      <c r="G39" s="15">
         <v>19</v>
       </c>
-      <c r="H39" s="17">
+      <c r="H39" s="16">
         <v>0</v>
       </c>
-      <c r="I39" s="17">
+      <c r="I39" s="16">
         <v>1</v>
       </c>
-      <c r="J39" s="17" t="s">
+      <c r="J39" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="K39" s="16" t="s">
+      <c r="K39" s="15" t="s">
         <v>15</v>
       </c>
     </row>
@@ -13916,19 +13906,19 @@
       <c r="F40" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="G40" s="16">
+      <c r="G40" s="15">
         <v>19</v>
       </c>
-      <c r="H40" s="17">
+      <c r="H40" s="16">
         <v>0</v>
       </c>
-      <c r="I40" s="17">
+      <c r="I40" s="16">
         <v>1</v>
       </c>
-      <c r="J40" s="17" t="s">
+      <c r="J40" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="K40" s="16" t="s">
+      <c r="K40" s="15" t="s">
         <v>15</v>
       </c>
     </row>
@@ -13950,19 +13940,19 @@
       <c r="F41" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="G41" s="16">
+      <c r="G41" s="15">
         <v>19</v>
       </c>
-      <c r="H41" s="17">
+      <c r="H41" s="16">
         <v>0</v>
       </c>
-      <c r="I41" s="17">
+      <c r="I41" s="16">
         <v>1</v>
       </c>
-      <c r="J41" s="17" t="s">
+      <c r="J41" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="K41" s="16" t="s">
+      <c r="K41" s="15" t="s">
         <v>15</v>
       </c>
     </row>
@@ -13982,19 +13972,19 @@
       </c>
       <c r="E42" s="5"/>
       <c r="F42" s="8"/>
-      <c r="G42" s="16">
+      <c r="G42" s="15">
         <v>19</v>
       </c>
-      <c r="H42" s="17">
+      <c r="H42" s="16">
         <v>0</v>
       </c>
-      <c r="I42" s="17">
+      <c r="I42" s="16">
         <v>1</v>
       </c>
-      <c r="J42" s="17" t="s">
+      <c r="J42" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="K42" s="16" t="s">
+      <c r="K42" s="15" t="s">
         <v>15</v>
       </c>
     </row>
@@ -14016,19 +14006,19 @@
       <c r="F43" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="G43" s="16">
+      <c r="G43" s="15">
         <v>19</v>
       </c>
-      <c r="H43" s="17">
+      <c r="H43" s="16">
         <v>0</v>
       </c>
-      <c r="I43" s="17">
+      <c r="I43" s="16">
         <v>1</v>
       </c>
-      <c r="J43" s="17" t="s">
+      <c r="J43" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="K43" s="16" t="s">
+      <c r="K43" s="15" t="s">
         <v>15</v>
       </c>
     </row>
@@ -14050,19 +14040,19 @@
       <c r="F44" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="G44" s="16">
+      <c r="G44" s="15">
         <v>19</v>
       </c>
-      <c r="H44" s="17">
+      <c r="H44" s="16">
         <v>0</v>
       </c>
-      <c r="I44" s="17">
+      <c r="I44" s="16">
         <v>1</v>
       </c>
-      <c r="J44" s="17" t="s">
+      <c r="J44" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="K44" s="16" t="s">
+      <c r="K44" s="15" t="s">
         <v>15</v>
       </c>
     </row>
@@ -14082,19 +14072,19 @@
       </c>
       <c r="E45" s="5"/>
       <c r="F45" s="8"/>
-      <c r="G45" s="16">
+      <c r="G45" s="15">
         <v>19</v>
       </c>
-      <c r="H45" s="17">
+      <c r="H45" s="16">
         <v>0</v>
       </c>
-      <c r="I45" s="17">
+      <c r="I45" s="16">
         <v>1</v>
       </c>
-      <c r="J45" s="17" t="s">
+      <c r="J45" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="K45" s="16" t="s">
+      <c r="K45" s="15" t="s">
         <v>15</v>
       </c>
     </row>
@@ -14114,19 +14104,19 @@
       </c>
       <c r="E46" s="5"/>
       <c r="F46" s="8"/>
-      <c r="G46" s="16">
+      <c r="G46" s="15">
         <v>19</v>
       </c>
-      <c r="H46" s="17">
+      <c r="H46" s="16">
         <v>0</v>
       </c>
-      <c r="I46" s="17">
+      <c r="I46" s="16">
         <v>1</v>
       </c>
-      <c r="J46" s="17" t="s">
+      <c r="J46" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="K46" s="16" t="s">
+      <c r="K46" s="15" t="s">
         <v>15</v>
       </c>
     </row>
@@ -14146,19 +14136,19 @@
       </c>
       <c r="E47" s="5"/>
       <c r="F47" s="8"/>
-      <c r="G47" s="16">
+      <c r="G47" s="15">
         <v>19</v>
       </c>
-      <c r="H47" s="17">
+      <c r="H47" s="16">
         <v>0</v>
       </c>
-      <c r="I47" s="17">
+      <c r="I47" s="16">
         <v>1</v>
       </c>
-      <c r="J47" s="17" t="s">
+      <c r="J47" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="K47" s="16" t="s">
+      <c r="K47" s="15" t="s">
         <v>15</v>
       </c>
     </row>
@@ -14180,19 +14170,19 @@
         <v>98</v>
       </c>
       <c r="F48" s="8"/>
-      <c r="G48" s="16">
+      <c r="G48" s="15">
         <v>19</v>
       </c>
-      <c r="H48" s="17">
+      <c r="H48" s="16">
         <v>0</v>
       </c>
-      <c r="I48" s="17">
+      <c r="I48" s="16">
         <v>1</v>
       </c>
-      <c r="J48" s="17" t="s">
+      <c r="J48" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="K48" s="16" t="s">
+      <c r="K48" s="15" t="s">
         <v>15</v>
       </c>
     </row>
@@ -14216,19 +14206,19 @@
       <c r="F49" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="G49" s="16">
+      <c r="G49" s="15">
         <v>19</v>
       </c>
-      <c r="H49" s="17">
+      <c r="H49" s="16">
         <v>0</v>
       </c>
-      <c r="I49" s="17">
+      <c r="I49" s="16">
         <v>1</v>
       </c>
-      <c r="J49" s="17" t="s">
+      <c r="J49" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="K49" s="16" t="s">
+      <c r="K49" s="15" t="s">
         <v>15</v>
       </c>
     </row>
@@ -14250,19 +14240,19 @@
       <c r="F50" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="G50" s="16">
-        <v>19</v>
-      </c>
-      <c r="H50" s="17">
+      <c r="G50" s="52">
+        <v>2</v>
+      </c>
+      <c r="H50" s="16">
         <v>0</v>
       </c>
-      <c r="I50" s="17">
+      <c r="I50" s="16">
         <v>1</v>
       </c>
-      <c r="J50" s="17" t="s">
+      <c r="J50" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="K50" s="16" t="s">
+      <c r="K50" s="15" t="s">
         <v>15</v>
       </c>
     </row>
@@ -14282,19 +14272,19 @@
       </c>
       <c r="E51" s="5"/>
       <c r="F51" s="8"/>
-      <c r="G51" s="16">
-        <v>19</v>
-      </c>
-      <c r="H51" s="17">
+      <c r="G51" s="52">
+        <v>2</v>
+      </c>
+      <c r="H51" s="16">
         <v>0</v>
       </c>
-      <c r="I51" s="17">
+      <c r="I51" s="16">
         <v>1</v>
       </c>
-      <c r="J51" s="17" t="s">
+      <c r="J51" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="K51" s="16" t="s">
+      <c r="K51" s="15" t="s">
         <v>15</v>
       </c>
     </row>
@@ -14316,19 +14306,19 @@
       <c r="F52" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="G52" s="16">
-        <v>19</v>
-      </c>
-      <c r="H52" s="17">
+      <c r="G52" s="52">
+        <v>4</v>
+      </c>
+      <c r="H52" s="16">
         <v>0</v>
       </c>
-      <c r="I52" s="17">
+      <c r="I52" s="16">
         <v>1</v>
       </c>
-      <c r="J52" s="17" t="s">
+      <c r="J52" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="K52" s="16" t="s">
+      <c r="K52" s="15" t="s">
         <v>15</v>
       </c>
     </row>
@@ -14348,19 +14338,19 @@
       </c>
       <c r="E53" s="5"/>
       <c r="F53" s="8"/>
-      <c r="G53" s="16">
-        <v>19</v>
-      </c>
-      <c r="H53" s="17">
+      <c r="G53" s="52">
+        <v>1</v>
+      </c>
+      <c r="H53" s="16">
         <v>0</v>
       </c>
-      <c r="I53" s="17">
+      <c r="I53" s="16">
         <v>1</v>
       </c>
-      <c r="J53" s="17" t="s">
+      <c r="J53" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="K53" s="16" t="s">
+      <c r="K53" s="15" t="s">
         <v>15</v>
       </c>
     </row>
@@ -14382,19 +14372,19 @@
       <c r="F54" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="G54" s="16">
-        <v>19</v>
-      </c>
-      <c r="H54" s="17">
+      <c r="G54" s="52">
         <v>0</v>
       </c>
-      <c r="I54" s="17">
+      <c r="H54" s="16">
+        <v>0</v>
+      </c>
+      <c r="I54" s="16">
         <v>1</v>
       </c>
-      <c r="J54" s="17" t="s">
+      <c r="J54" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="K54" s="16" t="s">
+      <c r="K54" s="15" t="s">
         <v>15</v>
       </c>
     </row>
@@ -14416,19 +14406,19 @@
       <c r="F55" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="G55" s="16">
-        <v>19</v>
-      </c>
-      <c r="H55" s="17">
+      <c r="G55" s="52">
+        <v>1</v>
+      </c>
+      <c r="H55" s="16">
         <v>0</v>
       </c>
-      <c r="I55" s="17">
+      <c r="I55" s="16">
         <v>1</v>
       </c>
-      <c r="J55" s="17" t="s">
+      <c r="J55" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="K55" s="16" t="s">
+      <c r="K55" s="15" t="s">
         <v>15</v>
       </c>
     </row>
@@ -14450,19 +14440,19 @@
       <c r="F56" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="G56" s="16">
-        <v>19</v>
-      </c>
-      <c r="H56" s="17">
+      <c r="G56" s="52">
+        <v>8</v>
+      </c>
+      <c r="H56" s="16">
         <v>0</v>
       </c>
-      <c r="I56" s="17">
+      <c r="I56" s="16">
         <v>1</v>
       </c>
-      <c r="J56" s="17" t="s">
+      <c r="J56" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="K56" s="16" t="s">
+      <c r="K56" s="15" t="s">
         <v>15</v>
       </c>
     </row>
@@ -14484,19 +14474,19 @@
       <c r="F57" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="G57" s="16">
-        <v>19</v>
-      </c>
-      <c r="H57" s="17">
+      <c r="G57" s="52">
+        <v>16</v>
+      </c>
+      <c r="H57" s="16">
         <v>0</v>
       </c>
-      <c r="I57" s="17">
+      <c r="I57" s="16">
         <v>1</v>
       </c>
-      <c r="J57" s="17" t="s">
+      <c r="J57" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="K57" s="16" t="s">
+      <c r="K57" s="15" t="s">
         <v>15</v>
       </c>
     </row>
@@ -14516,19 +14506,19 @@
       </c>
       <c r="E58" s="5"/>
       <c r="F58" s="8"/>
-      <c r="G58" s="16">
-        <v>19</v>
-      </c>
-      <c r="H58" s="17">
+      <c r="G58" s="52">
+        <v>2</v>
+      </c>
+      <c r="H58" s="16">
         <v>0</v>
       </c>
-      <c r="I58" s="17">
+      <c r="I58" s="16">
         <v>1</v>
       </c>
-      <c r="J58" s="17" t="s">
+      <c r="J58" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="K58" s="16" t="s">
+      <c r="K58" s="15" t="s">
         <v>15</v>
       </c>
     </row>
@@ -14550,19 +14540,19 @@
       <c r="F59" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="G59" s="16">
-        <v>19</v>
-      </c>
-      <c r="H59" s="17">
+      <c r="G59" s="52">
+        <v>4</v>
+      </c>
+      <c r="H59" s="16">
         <v>0</v>
       </c>
-      <c r="I59" s="17">
+      <c r="I59" s="16">
         <v>1</v>
       </c>
-      <c r="J59" s="17" t="s">
+      <c r="J59" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="K59" s="16" t="s">
+      <c r="K59" s="15" t="s">
         <v>15</v>
       </c>
     </row>
@@ -14584,19 +14574,19 @@
         <v>98</v>
       </c>
       <c r="F60" s="8"/>
-      <c r="G60" s="16">
-        <v>19</v>
-      </c>
-      <c r="H60" s="17">
+      <c r="G60" s="52">
+        <v>86</v>
+      </c>
+      <c r="H60" s="16">
         <v>0</v>
       </c>
-      <c r="I60" s="17">
+      <c r="I60" s="16">
         <v>1</v>
       </c>
-      <c r="J60" s="17" t="s">
+      <c r="J60" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="K60" s="16" t="s">
+      <c r="K60" s="15" t="s">
         <v>15</v>
       </c>
     </row>
@@ -14618,19 +14608,19 @@
         <v>98</v>
       </c>
       <c r="F61" s="8"/>
-      <c r="G61" s="16">
-        <v>19</v>
-      </c>
-      <c r="H61" s="17">
+      <c r="G61" s="52">
+        <v>86</v>
+      </c>
+      <c r="H61" s="16">
         <v>0</v>
       </c>
-      <c r="I61" s="17">
+      <c r="I61" s="16">
         <v>1</v>
       </c>
-      <c r="J61" s="17" t="s">
+      <c r="J61" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="K61" s="16" t="s">
+      <c r="K61" s="15" t="s">
         <v>15</v>
       </c>
     </row>
@@ -14652,19 +14642,19 @@
         <v>98</v>
       </c>
       <c r="F62" s="8"/>
-      <c r="G62" s="16">
-        <v>19</v>
-      </c>
-      <c r="H62" s="17">
+      <c r="G62" s="52">
+        <v>86</v>
+      </c>
+      <c r="H62" s="16">
         <v>0</v>
       </c>
-      <c r="I62" s="17">
+      <c r="I62" s="16">
         <v>1</v>
       </c>
-      <c r="J62" s="17" t="s">
+      <c r="J62" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="K62" s="16" t="s">
+      <c r="K62" s="15" t="s">
         <v>15</v>
       </c>
     </row>
@@ -14686,2341 +14676,2121 @@
       <c r="F63" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="G63" s="16">
-        <v>19</v>
-      </c>
-      <c r="H63" s="17">
+      <c r="G63" s="52">
+        <v>41</v>
+      </c>
+      <c r="H63" s="16">
         <v>0</v>
       </c>
-      <c r="I63" s="17">
+      <c r="I63" s="16">
         <v>1</v>
       </c>
-      <c r="J63" s="17" t="s">
+      <c r="J63" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="K63" s="16" t="s">
+      <c r="K63" s="15" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="64" spans="1:11" s="10" customFormat="1" ht="15" customHeight="1">
-      <c r="A64" s="15">
-        <v>9999</v>
-      </c>
-      <c r="B64" s="52" t="s">
-        <v>235</v>
+      <c r="A64" s="7">
+        <v>4122</v>
+      </c>
+      <c r="B64" s="10" t="s">
+        <v>7</v>
       </c>
       <c r="C64" s="6">
-        <v>647</v>
+        <v>202</v>
       </c>
       <c r="D64" s="5" t="str">
         <f>VLOOKUP(C64,[1]life_events!$A$1:$B$1365,2)</f>
-        <v>Load on bypass warning</v>
-      </c>
-      <c r="E64" s="5" t="s">
-        <v>230</v>
-      </c>
+        <v>Primary mains power failure</v>
+      </c>
+      <c r="E64" s="5"/>
       <c r="F64" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="G64" s="16">
-        <v>19</v>
-      </c>
-      <c r="H64" s="17">
+      <c r="G64" s="15">
         <v>0</v>
       </c>
-      <c r="I64" s="17">
+      <c r="H64" s="16">
+        <v>0</v>
+      </c>
+      <c r="I64" s="16">
         <v>1</v>
       </c>
-      <c r="J64" s="17" t="s">
+      <c r="J64" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="K64" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="K64" s="16" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row r="65" spans="1:11" s="10" customFormat="1" ht="15" customHeight="1">
-      <c r="A65" s="15">
-        <v>9999</v>
-      </c>
-      <c r="B65" s="52" t="s">
-        <v>235</v>
+      <c r="A65" s="7">
+        <v>4135</v>
+      </c>
+      <c r="B65" s="10" t="s">
+        <v>48</v>
       </c>
       <c r="C65" s="6">
-        <v>270</v>
+        <v>593</v>
       </c>
       <c r="D65" s="5" t="str">
         <f>VLOOKUP(C65,[1]life_events!$A$1:$B$1365,2)</f>
-        <v>Emergency primary mains failure</v>
-      </c>
-      <c r="E65" s="5" t="s">
-        <v>230</v>
-      </c>
+        <v>Bypass mains power failure</v>
+      </c>
+      <c r="E65" s="5"/>
       <c r="F65" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="G65" s="16">
-        <v>19</v>
-      </c>
-      <c r="H65" s="17">
+      <c r="G65" s="15">
         <v>0</v>
       </c>
-      <c r="I65" s="17">
+      <c r="H65" s="16">
+        <v>0</v>
+      </c>
+      <c r="I65" s="16">
         <v>1</v>
       </c>
-      <c r="J65" s="17" t="s">
+      <c r="J65" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="K65" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="K65" s="16" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row r="66" spans="1:11" s="10" customFormat="1" ht="15" customHeight="1">
-      <c r="A66" s="15">
-        <v>9999</v>
-      </c>
-      <c r="B66" s="52" t="s">
-        <v>235</v>
+      <c r="A66" s="7">
+        <v>4139</v>
+      </c>
+      <c r="B66" s="10" t="s">
+        <v>52</v>
       </c>
       <c r="C66" s="6">
-        <v>243</v>
+        <v>545</v>
       </c>
       <c r="D66" s="5" t="str">
         <f>VLOOKUP(C66,[1]life_events!$A$1:$B$1365,2)</f>
-        <v>Primary Mains power recovered</v>
-      </c>
-      <c r="E66" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="F66" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="G66" s="16">
-        <v>19</v>
-      </c>
-      <c r="H66" s="17">
+        <v>Transfer to bypass inhibited</v>
+      </c>
+      <c r="E66" s="5"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="15">
         <v>0</v>
       </c>
-      <c r="I66" s="17">
+      <c r="H66" s="16">
+        <v>0</v>
+      </c>
+      <c r="I66" s="16">
         <v>1</v>
       </c>
-      <c r="J66" s="17" t="s">
+      <c r="J66" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="K66" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="K66" s="16" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row r="67" spans="1:11" s="10" customFormat="1" ht="15" customHeight="1">
-      <c r="A67" s="15">
-        <v>9999</v>
-      </c>
-      <c r="B67" s="52" t="s">
-        <v>235</v>
+      <c r="A67" s="7">
+        <v>4143</v>
+      </c>
+      <c r="B67" s="10" t="s">
+        <v>8</v>
       </c>
       <c r="C67" s="6">
-        <v>572</v>
+        <v>579</v>
       </c>
       <c r="D67" s="5" t="str">
         <f>VLOOKUP(C67,[1]life_events!$A$1:$B$1365,2)</f>
-        <v>Emergency reserve supply failure</v>
-      </c>
-      <c r="E67" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="F67" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="G67" s="16">
-        <v>19</v>
-      </c>
-      <c r="H67" s="17">
+        <v>Bypass static switch fault / meas. defective</v>
+      </c>
+      <c r="E67" s="5"/>
+      <c r="F67" s="8"/>
+      <c r="G67" s="15">
         <v>0</v>
       </c>
-      <c r="I67" s="17">
+      <c r="H67" s="16">
+        <v>0</v>
+      </c>
+      <c r="I67" s="16">
         <v>1</v>
       </c>
-      <c r="J67" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="K67" s="16" t="s">
+      <c r="J67" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="K67" s="15" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="68" spans="1:11" s="10" customFormat="1" ht="15" customHeight="1">
       <c r="A68" s="7">
-        <v>4122</v>
+        <v>4146</v>
       </c>
       <c r="B68" s="10" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C68" s="6">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D68" s="5" t="str">
         <f>VLOOKUP(C68,[1]life_events!$A$1:$B$1365,2)</f>
-        <v>Primary mains power failure</v>
+        <v>Primary mains wrong phase rotation</v>
       </c>
       <c r="E68" s="5"/>
       <c r="F68" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="G68" s="16">
+        <v>9</v>
+      </c>
+      <c r="G68" s="15">
         <v>0</v>
       </c>
-      <c r="H68" s="17">
+      <c r="H68" s="16">
         <v>0</v>
       </c>
-      <c r="I68" s="17">
+      <c r="I68" s="16">
         <v>1</v>
       </c>
-      <c r="J68" s="17" t="s">
+      <c r="J68" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="K68" s="16" t="s">
+      <c r="K68" s="15" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="69" spans="1:11" s="10" customFormat="1" ht="15" customHeight="1">
       <c r="A69" s="7">
-        <v>4135</v>
+        <v>4162</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="C69" s="6">
-        <v>593</v>
+        <v>309</v>
       </c>
       <c r="D69" s="5" t="str">
         <f>VLOOKUP(C69,[1]life_events!$A$1:$B$1365,2)</f>
-        <v>Bypass mains power failure</v>
+        <v>Battery Shutdown Imminent</v>
       </c>
       <c r="E69" s="5"/>
-      <c r="F69" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="G69" s="16">
+      <c r="F69" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G69" s="15">
         <v>0</v>
       </c>
-      <c r="H69" s="17">
+      <c r="H69" s="16">
         <v>0</v>
       </c>
-      <c r="I69" s="17">
+      <c r="I69" s="16">
         <v>1</v>
       </c>
-      <c r="J69" s="17" t="s">
+      <c r="J69" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="K69" s="16" t="s">
+      <c r="K69" s="15" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="70" spans="1:11" s="10" customFormat="1" ht="15" customHeight="1">
       <c r="A70" s="7">
-        <v>4139</v>
+        <v>4164</v>
       </c>
       <c r="B70" s="10" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="C70" s="6">
-        <v>545</v>
+        <v>232</v>
       </c>
       <c r="D70" s="5" t="str">
         <f>VLOOKUP(C70,[1]life_events!$A$1:$B$1365,2)</f>
-        <v>Transfer to bypass inhibited</v>
+        <v>Battery charger failure</v>
       </c>
       <c r="E70" s="5"/>
-      <c r="F70" s="8"/>
-      <c r="G70" s="16">
+      <c r="F70" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G70" s="15">
         <v>0</v>
       </c>
-      <c r="H70" s="17">
+      <c r="H70" s="16">
         <v>0</v>
       </c>
-      <c r="I70" s="17">
+      <c r="I70" s="16">
         <v>1</v>
       </c>
-      <c r="J70" s="17" t="s">
+      <c r="J70" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="K70" s="16" t="s">
+      <c r="K70" s="15" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="71" spans="1:11" s="10" customFormat="1" ht="15" customHeight="1">
       <c r="A71" s="7">
-        <v>4143</v>
+        <v>4166</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>8</v>
+        <v>68</v>
       </c>
       <c r="C71" s="6">
-        <v>579</v>
+        <v>338</v>
       </c>
       <c r="D71" s="5" t="str">
         <f>VLOOKUP(C71,[1]life_events!$A$1:$B$1365,2)</f>
-        <v>Bypass static switch fault / meas. defective</v>
+        <v>Battery capacity too small</v>
       </c>
       <c r="E71" s="5"/>
-      <c r="F71" s="8"/>
-      <c r="G71" s="16">
+      <c r="F71" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G71" s="15">
         <v>0</v>
       </c>
-      <c r="H71" s="17">
+      <c r="H71" s="16">
         <v>0</v>
       </c>
-      <c r="I71" s="17">
+      <c r="I71" s="16">
         <v>1</v>
       </c>
-      <c r="J71" s="17" t="s">
+      <c r="J71" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="K71" s="16" t="s">
+      <c r="K71" s="15" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="72" spans="1:11" s="10" customFormat="1" ht="15" customHeight="1">
       <c r="A72" s="7">
-        <v>4146</v>
+        <v>4168</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>10</v>
+        <v>71</v>
       </c>
       <c r="C72" s="6">
-        <v>204</v>
+        <v>308</v>
       </c>
       <c r="D72" s="5" t="str">
         <f>VLOOKUP(C72,[1]life_events!$A$1:$B$1365,2)</f>
-        <v>Primary mains wrong phase rotation</v>
+        <v>Battery discharging</v>
       </c>
       <c r="E72" s="5"/>
-      <c r="F72" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="G72" s="16">
+      <c r="F72" s="8"/>
+      <c r="G72" s="15">
         <v>0</v>
       </c>
-      <c r="H72" s="17">
+      <c r="H72" s="16">
         <v>0</v>
       </c>
-      <c r="I72" s="17">
+      <c r="I72" s="16">
         <v>1</v>
       </c>
-      <c r="J72" s="17" t="s">
+      <c r="J72" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="K72" s="16" t="s">
+      <c r="K72" s="15" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="73" spans="1:11" s="10" customFormat="1" ht="15" customHeight="1">
       <c r="A73" s="7">
-        <v>4162</v>
+        <v>4170</v>
       </c>
       <c r="B73" s="10" t="s">
-        <v>12</v>
+        <v>74</v>
       </c>
       <c r="C73" s="6">
-        <v>309</v>
+        <v>1841</v>
       </c>
       <c r="D73" s="5" t="str">
         <f>VLOOKUP(C73,[1]life_events!$A$1:$B$1365,2)</f>
-        <v>Battery Shutdown Imminent</v>
+        <v>Battery Equalize</v>
       </c>
       <c r="E73" s="5"/>
-      <c r="F73" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G73" s="16">
+      <c r="F73" s="8"/>
+      <c r="G73" s="15">
         <v>0</v>
       </c>
-      <c r="H73" s="17">
+      <c r="H73" s="16">
         <v>0</v>
       </c>
-      <c r="I73" s="17">
+      <c r="I73" s="16">
         <v>1</v>
       </c>
-      <c r="J73" s="17" t="s">
+      <c r="J73" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="K73" s="16" t="s">
+      <c r="K73" s="15" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="74" spans="1:11" s="10" customFormat="1" ht="15" customHeight="1">
       <c r="A74" s="7">
-        <v>4164</v>
+        <v>4172</v>
       </c>
       <c r="B74" s="10" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="C74" s="6">
-        <v>232</v>
+        <v>312</v>
       </c>
       <c r="D74" s="5" t="str">
         <f>VLOOKUP(C74,[1]life_events!$A$1:$B$1365,2)</f>
-        <v>Battery charger failure</v>
+        <v>Battery test</v>
       </c>
       <c r="E74" s="5"/>
-      <c r="F74" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G74" s="16">
+      <c r="F74" s="8"/>
+      <c r="G74" s="15">
         <v>0</v>
       </c>
-      <c r="H74" s="17">
+      <c r="H74" s="16">
         <v>0</v>
       </c>
-      <c r="I74" s="17">
+      <c r="I74" s="16">
         <v>1</v>
       </c>
-      <c r="J74" s="17" t="s">
+      <c r="J74" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="K74" s="16" t="s">
+      <c r="K74" s="15" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="75" spans="1:11" s="10" customFormat="1" ht="15" customHeight="1">
       <c r="A75" s="7">
-        <v>4166</v>
+        <v>4173</v>
       </c>
       <c r="B75" s="10" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="C75" s="6">
-        <v>338</v>
+        <v>303</v>
       </c>
       <c r="D75" s="5" t="str">
         <f>VLOOKUP(C75,[1]life_events!$A$1:$B$1365,2)</f>
-        <v>Battery capacity too small</v>
+        <v>Battery disconnected</v>
       </c>
       <c r="E75" s="5"/>
       <c r="F75" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="G75" s="16">
+      <c r="G75" s="15">
         <v>0</v>
       </c>
-      <c r="H75" s="17">
+      <c r="H75" s="16">
         <v>0</v>
       </c>
-      <c r="I75" s="17">
+      <c r="I75" s="16">
         <v>1</v>
       </c>
-      <c r="J75" s="17" t="s">
+      <c r="J75" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="K75" s="16" t="s">
+      <c r="K75" s="15" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="76" spans="1:11" s="10" customFormat="1" ht="15" customHeight="1">
       <c r="A76" s="7">
-        <v>4168</v>
+        <v>4200</v>
       </c>
       <c r="B76" s="10" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="C76" s="6">
-        <v>308</v>
+        <v>233</v>
       </c>
       <c r="D76" s="5" t="str">
         <f>VLOOKUP(C76,[1]life_events!$A$1:$B$1365,2)</f>
-        <v>Battery discharging</v>
+        <v>Battery charger inhibit</v>
       </c>
       <c r="E76" s="5"/>
       <c r="F76" s="8"/>
-      <c r="G76" s="16">
+      <c r="G76" s="15">
         <v>0</v>
       </c>
-      <c r="H76" s="17">
+      <c r="H76" s="16">
         <v>0</v>
       </c>
-      <c r="I76" s="17">
+      <c r="I76" s="16">
         <v>1</v>
       </c>
-      <c r="J76" s="17" t="s">
+      <c r="J76" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="K76" s="16" t="s">
+      <c r="K76" s="15" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="77" spans="1:11" s="10" customFormat="1" ht="15" customHeight="1">
       <c r="A77" s="7">
-        <v>4170</v>
+        <v>4213</v>
       </c>
       <c r="B77" s="10" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="C77" s="6">
-        <v>1841</v>
+        <v>1111</v>
       </c>
       <c r="D77" s="5" t="str">
         <f>VLOOKUP(C77,[1]life_events!$A$1:$B$1365,2)</f>
-        <v>Battery Equalize</v>
+        <v>Emergency stop operated</v>
       </c>
       <c r="E77" s="5"/>
-      <c r="F77" s="8"/>
-      <c r="G77" s="16">
+      <c r="F77" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="G77" s="15">
         <v>0</v>
       </c>
-      <c r="H77" s="17">
+      <c r="H77" s="16">
         <v>0</v>
       </c>
-      <c r="I77" s="17">
+      <c r="I77" s="16">
         <v>1</v>
       </c>
-      <c r="J77" s="17" t="s">
+      <c r="J77" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="K77" s="16" t="s">
+      <c r="K77" s="15" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="78" spans="1:11" s="10" customFormat="1" ht="15" customHeight="1">
       <c r="A78" s="7">
-        <v>4172</v>
+        <v>4219</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="C78" s="6">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="D78" s="5" t="str">
         <f>VLOOKUP(C78,[1]life_events!$A$1:$B$1365,2)</f>
-        <v>Battery test</v>
+        <v>High battery temperature</v>
       </c>
       <c r="E78" s="5"/>
-      <c r="F78" s="8"/>
-      <c r="G78" s="16">
+      <c r="F78" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G78" s="15">
         <v>0</v>
       </c>
-      <c r="H78" s="17">
+      <c r="H78" s="16">
         <v>0</v>
       </c>
-      <c r="I78" s="17">
+      <c r="I78" s="16">
         <v>1</v>
       </c>
-      <c r="J78" s="17" t="s">
+      <c r="J78" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="K78" s="16" t="s">
+      <c r="K78" s="15" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="79" spans="1:11" s="10" customFormat="1" ht="15" customHeight="1">
       <c r="A79" s="7">
-        <v>4173</v>
+        <v>4233</v>
       </c>
       <c r="B79" s="10" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="C79" s="6">
-        <v>303</v>
+        <v>436</v>
       </c>
       <c r="D79" s="5" t="str">
         <f>VLOOKUP(C79,[1]life_events!$A$1:$B$1365,2)</f>
-        <v>Battery disconnected</v>
+        <v>Inverter fault</v>
       </c>
       <c r="E79" s="5"/>
       <c r="F79" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="G79" s="16">
+        <v>85</v>
+      </c>
+      <c r="G79" s="15">
         <v>0</v>
       </c>
-      <c r="H79" s="17">
+      <c r="H79" s="16">
         <v>0</v>
       </c>
-      <c r="I79" s="17">
+      <c r="I79" s="16">
         <v>1</v>
       </c>
-      <c r="J79" s="17" t="s">
+      <c r="J79" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="K79" s="16" t="s">
+      <c r="K79" s="15" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="80" spans="1:11" s="10" customFormat="1" ht="15" customHeight="1">
       <c r="A80" s="7">
-        <v>4200</v>
+        <v>4234</v>
       </c>
       <c r="B80" s="10" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="C80" s="6">
-        <v>233</v>
+        <v>474</v>
       </c>
       <c r="D80" s="5" t="str">
         <f>VLOOKUP(C80,[1]life_events!$A$1:$B$1365,2)</f>
-        <v>Battery charger inhibit</v>
-      </c>
-      <c r="E80" s="5"/>
-      <c r="F80" s="8"/>
-      <c r="G80" s="16">
+        <v>Inverter overload fault</v>
+      </c>
+      <c r="E80" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="F80" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G80" s="15">
         <v>0</v>
       </c>
-      <c r="H80" s="17">
+      <c r="H80" s="16">
         <v>0</v>
       </c>
-      <c r="I80" s="17">
+      <c r="I80" s="16">
         <v>1</v>
       </c>
-      <c r="J80" s="17" t="s">
+      <c r="J80" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="K80" s="16" t="s">
+      <c r="K80" s="15" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="81" spans="1:11" s="10" customFormat="1" ht="15" customHeight="1">
       <c r="A81" s="7">
-        <v>4213</v>
+        <v>4235</v>
       </c>
       <c r="B81" s="10" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="C81" s="6">
-        <v>1111</v>
+        <v>474</v>
       </c>
       <c r="D81" s="5" t="str">
         <f>VLOOKUP(C81,[1]life_events!$A$1:$B$1365,2)</f>
-        <v>Emergency stop operated</v>
-      </c>
-      <c r="E81" s="5"/>
+        <v>Inverter overload fault</v>
+      </c>
+      <c r="E81" s="5" t="s">
+        <v>98</v>
+      </c>
       <c r="F81" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="G81" s="16">
+        <v>9</v>
+      </c>
+      <c r="G81" s="15">
         <v>0</v>
       </c>
-      <c r="H81" s="17">
+      <c r="H81" s="16">
         <v>0</v>
       </c>
-      <c r="I81" s="17">
+      <c r="I81" s="16">
         <v>1</v>
       </c>
-      <c r="J81" s="17" t="s">
+      <c r="J81" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="K81" s="16" t="s">
+      <c r="K81" s="15" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="82" spans="1:11" s="10" customFormat="1" ht="15" customHeight="1">
       <c r="A82" s="7">
-        <v>4219</v>
+        <v>4236</v>
       </c>
       <c r="B82" s="10" t="s">
-        <v>91</v>
+        <v>107</v>
       </c>
       <c r="C82" s="6">
-        <v>315</v>
+        <v>474</v>
       </c>
       <c r="D82" s="5" t="str">
         <f>VLOOKUP(C82,[1]life_events!$A$1:$B$1365,2)</f>
-        <v>High battery temperature</v>
-      </c>
-      <c r="E82" s="5"/>
+        <v>Inverter overload fault</v>
+      </c>
+      <c r="E82" s="5" t="s">
+        <v>98</v>
+      </c>
       <c r="F82" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="G82" s="16">
+      <c r="G82" s="15">
         <v>0</v>
       </c>
-      <c r="H82" s="17">
+      <c r="H82" s="16">
         <v>0</v>
       </c>
-      <c r="I82" s="17">
+      <c r="I82" s="16">
         <v>1</v>
       </c>
-      <c r="J82" s="17" t="s">
+      <c r="J82" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="K82" s="16" t="s">
+      <c r="K82" s="15" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="83" spans="1:11" s="10" customFormat="1" ht="15" customHeight="1">
       <c r="A83" s="7">
-        <v>4233</v>
+        <v>4290</v>
       </c>
       <c r="B83" s="10" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="C83" s="6">
-        <v>436</v>
+        <v>408</v>
       </c>
       <c r="D83" s="5" t="str">
         <f>VLOOKUP(C83,[1]life_events!$A$1:$B$1365,2)</f>
-        <v>Inverter fault</v>
+        <v>Inhibited due to overload timeout</v>
       </c>
       <c r="E83" s="5"/>
       <c r="F83" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="G83" s="16">
+        <v>9</v>
+      </c>
+      <c r="G83" s="15">
         <v>0</v>
       </c>
-      <c r="H83" s="17">
+      <c r="H83" s="16">
         <v>0</v>
       </c>
-      <c r="I83" s="17">
+      <c r="I83" s="16">
         <v>1</v>
       </c>
-      <c r="J83" s="17" t="s">
+      <c r="J83" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="K83" s="16" t="s">
+      <c r="K83" s="15" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="84" spans="1:11" s="10" customFormat="1" ht="15" customHeight="1">
       <c r="A84" s="7">
-        <v>4234</v>
+        <v>4295</v>
       </c>
       <c r="B84" s="10" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="C84" s="6">
-        <v>474</v>
+        <v>273</v>
       </c>
       <c r="D84" s="5" t="str">
         <f>VLOOKUP(C84,[1]life_events!$A$1:$B$1365,2)</f>
-        <v>Inverter overload fault</v>
-      </c>
-      <c r="E84" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="F84" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="G84" s="16">
+        <v>Rectifier fault</v>
+      </c>
+      <c r="E84" s="5"/>
+      <c r="F84" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G84" s="15">
         <v>0</v>
       </c>
-      <c r="H84" s="17">
+      <c r="H84" s="16">
         <v>0</v>
       </c>
-      <c r="I84" s="17">
+      <c r="I84" s="16">
         <v>1</v>
       </c>
-      <c r="J84" s="17" t="s">
+      <c r="J84" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="K84" s="16" t="s">
+      <c r="K84" s="15" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="85" spans="1:11" s="10" customFormat="1" ht="15" customHeight="1">
       <c r="A85" s="7">
-        <v>4235</v>
+        <v>4298</v>
       </c>
       <c r="B85" s="10" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="C85" s="6">
-        <v>474</v>
+        <v>659</v>
       </c>
       <c r="D85" s="5" t="str">
         <f>VLOOKUP(C85,[1]life_events!$A$1:$B$1365,2)</f>
-        <v>Inverter overload fault</v>
-      </c>
-      <c r="E85" s="5" t="s">
-        <v>98</v>
-      </c>
+        <v>Output load supplied by bypass</v>
+      </c>
+      <c r="E85" s="5"/>
       <c r="F85" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="G85" s="16">
+        <v>6</v>
+      </c>
+      <c r="G85" s="15">
         <v>0</v>
       </c>
-      <c r="H85" s="17">
+      <c r="H85" s="16">
         <v>0</v>
       </c>
-      <c r="I85" s="17">
+      <c r="I85" s="16">
         <v>1</v>
       </c>
-      <c r="J85" s="17" t="s">
+      <c r="J85" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="K85" s="16" t="s">
+      <c r="K85" s="15" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="86" spans="1:11" s="10" customFormat="1" ht="15" customHeight="1">
       <c r="A86" s="7">
-        <v>4236</v>
+        <v>4299</v>
       </c>
       <c r="B86" s="10" t="s">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="C86" s="6">
-        <v>474</v>
+        <v>606</v>
       </c>
       <c r="D86" s="5" t="str">
         <f>VLOOKUP(C86,[1]life_events!$A$1:$B$1365,2)</f>
-        <v>Inverter overload fault</v>
-      </c>
-      <c r="E86" s="5" t="s">
-        <v>98</v>
-      </c>
+        <v>Output load supplied through maintenance bypass</v>
+      </c>
+      <c r="E86" s="5"/>
       <c r="F86" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="G86" s="16">
+      <c r="G86" s="15">
         <v>0</v>
       </c>
-      <c r="H86" s="17">
+      <c r="H86" s="16">
         <v>0</v>
       </c>
-      <c r="I86" s="17">
+      <c r="I86" s="16">
         <v>1</v>
       </c>
-      <c r="J86" s="17" t="s">
+      <c r="J86" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="K86" s="16" t="s">
+      <c r="K86" s="15" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="87" spans="1:11" s="10" customFormat="1" ht="15" customHeight="1">
       <c r="A87" s="7">
-        <v>4290</v>
+        <v>4300</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="C87" s="6">
-        <v>408</v>
+        <v>71</v>
       </c>
       <c r="D87" s="5" t="str">
         <f>VLOOKUP(C87,[1]life_events!$A$1:$B$1365,2)</f>
-        <v>Inhibited due to overload timeout</v>
+        <v>Liebert communication fault</v>
       </c>
       <c r="E87" s="5"/>
       <c r="F87" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="G87" s="16">
+      <c r="G87" s="15">
         <v>0</v>
       </c>
-      <c r="H87" s="17">
+      <c r="H87" s="16">
         <v>0</v>
       </c>
-      <c r="I87" s="17">
+      <c r="I87" s="16">
         <v>1</v>
       </c>
-      <c r="J87" s="17" t="s">
+      <c r="J87" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="K87" s="16" t="s">
+      <c r="K87" s="15" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="88" spans="1:11" s="10" customFormat="1" ht="15" customHeight="1">
       <c r="A88" s="7">
-        <v>4295</v>
+        <v>4310</v>
       </c>
       <c r="B88" s="10" t="s">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="C88" s="6">
-        <v>273</v>
+        <v>419</v>
       </c>
       <c r="D88" s="5" t="str">
         <f>VLOOKUP(C88,[1]life_events!$A$1:$B$1365,2)</f>
-        <v>Rectifier fault</v>
+        <v>Over temperature</v>
       </c>
       <c r="E88" s="5"/>
-      <c r="F88" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G88" s="16">
+      <c r="F88" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G88" s="15">
         <v>0</v>
       </c>
-      <c r="H88" s="17">
+      <c r="H88" s="16">
         <v>0</v>
       </c>
-      <c r="I88" s="17">
+      <c r="I88" s="16">
         <v>1</v>
       </c>
-      <c r="J88" s="17" t="s">
+      <c r="J88" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="K88" s="16" t="s">
+      <c r="K88" s="15" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="89" spans="1:11" s="10" customFormat="1" ht="15" customHeight="1">
       <c r="A89" s="7">
-        <v>4298</v>
+        <v>4311</v>
       </c>
       <c r="B89" s="10" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="C89" s="6">
-        <v>659</v>
+        <v>166</v>
       </c>
       <c r="D89" s="5" t="str">
         <f>VLOOKUP(C89,[1]life_events!$A$1:$B$1365,2)</f>
-        <v>Output load supplied by bypass</v>
-      </c>
-      <c r="E89" s="5"/>
-      <c r="F89" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="G89" s="16">
+        <v>Fan failure</v>
+      </c>
+      <c r="E89" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="F89" s="8"/>
+      <c r="G89" s="15">
         <v>0</v>
       </c>
-      <c r="H89" s="17">
+      <c r="H89" s="16">
         <v>0</v>
       </c>
-      <c r="I89" s="17">
+      <c r="I89" s="16">
         <v>1</v>
       </c>
-      <c r="J89" s="17" t="s">
+      <c r="J89" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="K89" s="16" t="s">
+      <c r="K89" s="15" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="90" spans="1:11" s="10" customFormat="1" ht="15" customHeight="1">
       <c r="A90" s="7">
-        <v>4299</v>
+        <v>4315</v>
       </c>
       <c r="B90" s="10" t="s">
-        <v>121</v>
+        <v>135</v>
       </c>
       <c r="C90" s="6">
-        <v>606</v>
+        <v>1219</v>
       </c>
       <c r="D90" s="5" t="str">
         <f>VLOOKUP(C90,[1]life_events!$A$1:$B$1365,2)</f>
-        <v>Output load supplied through maintenance bypass</v>
+        <v>Generator on load</v>
       </c>
       <c r="E90" s="5"/>
-      <c r="F90" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="G90" s="16">
+      <c r="F90" s="8"/>
+      <c r="G90" s="15">
         <v>0</v>
       </c>
-      <c r="H90" s="17">
+      <c r="H90" s="16">
         <v>0</v>
       </c>
-      <c r="I90" s="17">
+      <c r="I90" s="16">
         <v>1</v>
       </c>
-      <c r="J90" s="17" t="s">
+      <c r="J90" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="K90" s="16" t="s">
+      <c r="K90" s="15" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="91" spans="1:11" s="10" customFormat="1" ht="15" customHeight="1">
       <c r="A91" s="7">
-        <v>4300</v>
+        <v>4382</v>
       </c>
       <c r="B91" s="10" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="C91" s="6">
-        <v>71</v>
+        <v>1845</v>
       </c>
       <c r="D91" s="5" t="str">
         <f>VLOOKUP(C91,[1]life_events!$A$1:$B$1365,2)</f>
-        <v>Liebert communication fault</v>
+        <v>System Input Current Imbalance</v>
       </c>
       <c r="E91" s="5"/>
       <c r="F91" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="G91" s="16">
+      <c r="G91" s="15">
         <v>0</v>
       </c>
-      <c r="H91" s="17">
+      <c r="H91" s="16">
         <v>0</v>
       </c>
-      <c r="I91" s="17">
+      <c r="I91" s="16">
         <v>1</v>
       </c>
-      <c r="J91" s="17" t="s">
+      <c r="J91" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="K91" s="16" t="s">
+      <c r="K91" s="15" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="92" spans="1:11" s="10" customFormat="1" ht="15" customHeight="1">
       <c r="A92" s="7">
-        <v>4310</v>
+        <v>4389</v>
       </c>
       <c r="B92" s="10" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="C92" s="6">
-        <v>419</v>
+        <v>642</v>
       </c>
       <c r="D92" s="5" t="str">
         <f>VLOOKUP(C92,[1]life_events!$A$1:$B$1365,2)</f>
-        <v>Over temperature</v>
+        <v>Output general fail</v>
       </c>
       <c r="E92" s="5"/>
       <c r="F92" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="G92" s="16">
+        <v>6</v>
+      </c>
+      <c r="G92" s="15">
         <v>0</v>
       </c>
-      <c r="H92" s="17">
+      <c r="H92" s="16">
         <v>0</v>
       </c>
-      <c r="I92" s="17">
+      <c r="I92" s="16">
         <v>1</v>
       </c>
-      <c r="J92" s="17" t="s">
+      <c r="J92" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="K92" s="16" t="s">
+      <c r="K92" s="15" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="93" spans="1:11" s="10" customFormat="1" ht="15" customHeight="1">
       <c r="A93" s="7">
-        <v>4311</v>
+        <v>4391</v>
       </c>
       <c r="B93" s="10" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="C93" s="6">
-        <v>166</v>
+        <v>445</v>
       </c>
       <c r="D93" s="5" t="str">
         <f>VLOOKUP(C93,[1]life_events!$A$1:$B$1365,2)</f>
-        <v>Fan failure</v>
-      </c>
-      <c r="E93" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="F93" s="8"/>
-      <c r="G93" s="16">
+        <v>Inverter static switch in short circuit</v>
+      </c>
+      <c r="E93" s="5"/>
+      <c r="F93" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G93" s="15">
         <v>0</v>
       </c>
-      <c r="H93" s="17">
+      <c r="H93" s="16">
         <v>0</v>
       </c>
-      <c r="I93" s="17">
+      <c r="I93" s="16">
         <v>1</v>
       </c>
-      <c r="J93" s="17" t="s">
+      <c r="J93" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="K93" s="16" t="s">
+      <c r="K93" s="15" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="94" spans="1:11" s="10" customFormat="1" ht="15" customHeight="1">
       <c r="A94" s="7">
-        <v>4315</v>
+        <v>4440</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
       <c r="C94" s="6">
-        <v>1219</v>
+        <v>1600</v>
       </c>
       <c r="D94" s="5" t="str">
         <f>VLOOKUP(C94,[1]life_events!$A$1:$B$1365,2)</f>
-        <v>Generator on load</v>
+        <v>One or more fuses blown</v>
       </c>
       <c r="E94" s="5"/>
-      <c r="F94" s="8"/>
-      <c r="G94" s="16">
+      <c r="F94" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G94" s="15">
         <v>0</v>
       </c>
-      <c r="H94" s="17">
+      <c r="H94" s="16">
         <v>0</v>
       </c>
-      <c r="I94" s="17">
+      <c r="I94" s="16">
         <v>1</v>
       </c>
-      <c r="J94" s="17" t="s">
+      <c r="J94" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="K94" s="16" t="s">
+      <c r="K94" s="15" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="95" spans="1:11" s="10" customFormat="1" ht="15" customHeight="1">
       <c r="A95" s="7">
-        <v>4382</v>
+        <v>4758</v>
       </c>
       <c r="B95" s="10" t="s">
-        <v>138</v>
+        <v>155</v>
       </c>
       <c r="C95" s="6">
-        <v>1845</v>
+        <v>1843</v>
       </c>
       <c r="D95" s="5" t="str">
         <f>VLOOKUP(C95,[1]life_events!$A$1:$B$1365,2)</f>
-        <v>System Input Current Imbalance</v>
+        <v>LBS Inhibited</v>
       </c>
       <c r="E95" s="5"/>
       <c r="F95" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="G95" s="16">
+      <c r="G95" s="15">
         <v>0</v>
       </c>
-      <c r="H95" s="17">
+      <c r="H95" s="16">
         <v>0</v>
       </c>
-      <c r="I95" s="17">
+      <c r="I95" s="16">
         <v>1</v>
       </c>
-      <c r="J95" s="17" t="s">
+      <c r="J95" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="K95" s="16" t="s">
+      <c r="K95" s="15" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="96" spans="1:11" s="10" customFormat="1" ht="15" customHeight="1">
       <c r="A96" s="7">
-        <v>4389</v>
+        <v>4823</v>
       </c>
       <c r="B96" s="10" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
       <c r="C96" s="6">
-        <v>642</v>
+        <v>1691</v>
       </c>
       <c r="D96" s="5" t="str">
         <f>VLOOKUP(C96,[1]life_events!$A$1:$B$1365,2)</f>
-        <v>Output general fail</v>
+        <v>Parallel communication fault</v>
       </c>
       <c r="E96" s="5"/>
-      <c r="F96" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="G96" s="16">
+      <c r="F96" s="8"/>
+      <c r="G96" s="15">
         <v>0</v>
       </c>
-      <c r="H96" s="17">
+      <c r="H96" s="16">
         <v>0</v>
       </c>
-      <c r="I96" s="17">
+      <c r="I96" s="16">
         <v>1</v>
       </c>
-      <c r="J96" s="17" t="s">
+      <c r="J96" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="K96" s="16" t="s">
+      <c r="K96" s="15" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="97" spans="1:11" s="10" customFormat="1" ht="15" customHeight="1">
       <c r="A97" s="7">
-        <v>4391</v>
+        <v>4825</v>
       </c>
       <c r="B97" s="10" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="C97" s="6">
-        <v>445</v>
+        <v>1635</v>
       </c>
       <c r="D97" s="5" t="str">
         <f>VLOOKUP(C97,[1]life_events!$A$1:$B$1365,2)</f>
-        <v>Inverter static switch in short circuit</v>
+        <v>UPS loss of redundancy</v>
       </c>
       <c r="E97" s="5"/>
       <c r="F97" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="G97" s="16">
+      <c r="G97" s="15">
         <v>0</v>
       </c>
-      <c r="H97" s="17">
+      <c r="H97" s="16">
         <v>0</v>
       </c>
-      <c r="I97" s="17">
+      <c r="I97" s="16">
         <v>1</v>
       </c>
-      <c r="J97" s="17" t="s">
+      <c r="J97" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="K97" s="16" t="s">
+      <c r="K97" s="15" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="98" spans="1:11" s="10" customFormat="1" ht="15" customHeight="1">
       <c r="A98" s="7">
-        <v>4440</v>
+        <v>4831</v>
       </c>
       <c r="B98" s="10" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="C98" s="6">
-        <v>1600</v>
+        <v>611</v>
       </c>
       <c r="D98" s="5" t="str">
         <f>VLOOKUP(C98,[1]life_events!$A$1:$B$1365,2)</f>
-        <v>One or more fuses blown</v>
-      </c>
-      <c r="E98" s="5"/>
+        <v>Overload</v>
+      </c>
+      <c r="E98" s="5" t="s">
+        <v>98</v>
+      </c>
       <c r="F98" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="G98" s="16">
+        <v>6</v>
+      </c>
+      <c r="G98" s="15">
         <v>0</v>
       </c>
-      <c r="H98" s="17">
+      <c r="H98" s="16">
         <v>0</v>
       </c>
-      <c r="I98" s="17">
+      <c r="I98" s="16">
         <v>1</v>
       </c>
-      <c r="J98" s="17" t="s">
+      <c r="J98" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="K98" s="16" t="s">
+      <c r="K98" s="15" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="99" spans="1:11" s="10" customFormat="1" ht="15" customHeight="1">
       <c r="A99" s="7">
-        <v>4758</v>
+        <v>5149</v>
       </c>
       <c r="B99" s="10" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="C99" s="6">
-        <v>1843</v>
+        <v>1846</v>
       </c>
       <c r="D99" s="5" t="str">
         <f>VLOOKUP(C99,[1]life_events!$A$1:$B$1365,2)</f>
-        <v>LBS Inhibited</v>
+        <v>Battery Not Qualified</v>
       </c>
       <c r="E99" s="5"/>
-      <c r="F99" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="G99" s="16">
+      <c r="F99" s="8"/>
+      <c r="G99" s="15">
         <v>0</v>
       </c>
-      <c r="H99" s="17">
+      <c r="H99" s="16">
         <v>0</v>
       </c>
-      <c r="I99" s="17">
+      <c r="I99" s="16">
         <v>1</v>
       </c>
-      <c r="J99" s="17" t="s">
+      <c r="J99" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="K99" s="16" t="s">
+      <c r="K99" s="15" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="100" spans="1:11" s="10" customFormat="1" ht="15" customHeight="1">
       <c r="A100" s="7">
-        <v>4823</v>
+        <v>5150</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>159</v>
+        <v>174</v>
       </c>
       <c r="C100" s="6">
-        <v>1691</v>
+        <v>382</v>
       </c>
       <c r="D100" s="5" t="str">
         <f>VLOOKUP(C100,[1]life_events!$A$1:$B$1365,2)</f>
-        <v>Parallel communication fault</v>
+        <v>Battery reverse connected</v>
       </c>
       <c r="E100" s="5"/>
-      <c r="F100" s="8"/>
-      <c r="G100" s="16">
+      <c r="F100" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G100" s="15">
         <v>0</v>
       </c>
-      <c r="H100" s="17">
+      <c r="H100" s="16">
         <v>0</v>
       </c>
-      <c r="I100" s="17">
+      <c r="I100" s="16">
         <v>1</v>
       </c>
-      <c r="J100" s="17" t="s">
+      <c r="J100" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="K100" s="16" t="s">
+      <c r="K100" s="15" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="101" spans="1:11" s="10" customFormat="1" ht="15" customHeight="1">
       <c r="A101" s="7">
-        <v>4825</v>
+        <v>5151</v>
       </c>
       <c r="B101" s="10" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="C101" s="6">
-        <v>1635</v>
+        <v>1683</v>
       </c>
       <c r="D101" s="5" t="str">
         <f>VLOOKUP(C101,[1]life_events!$A$1:$B$1365,2)</f>
-        <v>UPS loss of redundancy</v>
+        <v>Battery converter fail</v>
       </c>
       <c r="E101" s="5"/>
       <c r="F101" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="G101" s="16">
+      <c r="G101" s="15">
         <v>0</v>
       </c>
-      <c r="H101" s="17">
+      <c r="H101" s="16">
         <v>0</v>
       </c>
-      <c r="I101" s="17">
+      <c r="I101" s="16">
         <v>1</v>
       </c>
-      <c r="J101" s="17" t="s">
+      <c r="J101" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="K101" s="16" t="s">
+      <c r="K101" s="15" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="102" spans="1:11" s="10" customFormat="1" ht="15" customHeight="1">
       <c r="A102" s="7">
-        <v>4831</v>
+        <v>5152</v>
       </c>
       <c r="B102" s="10" t="s">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="C102" s="6">
-        <v>611</v>
+        <v>617</v>
       </c>
       <c r="D102" s="5" t="str">
         <f>VLOOKUP(C102,[1]life_events!$A$1:$B$1365,2)</f>
-        <v>Overload</v>
-      </c>
-      <c r="E102" s="5" t="s">
-        <v>98</v>
-      </c>
+        <v>Inverter static switch open</v>
+      </c>
+      <c r="E102" s="5"/>
       <c r="F102" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="G102" s="16">
+        <v>9</v>
+      </c>
+      <c r="G102" s="15">
         <v>0</v>
       </c>
-      <c r="H102" s="17">
+      <c r="H102" s="16">
         <v>0</v>
       </c>
-      <c r="I102" s="17">
+      <c r="I102" s="16">
         <v>1</v>
       </c>
-      <c r="J102" s="17" t="s">
+      <c r="J102" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="K102" s="16" t="s">
+      <c r="K102" s="15" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="103" spans="1:11" s="10" customFormat="1" ht="15" customHeight="1">
       <c r="A103" s="7">
-        <v>5149</v>
+        <v>5153</v>
       </c>
       <c r="B103" s="10" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="C103" s="6">
-        <v>1846</v>
+        <v>1847</v>
       </c>
       <c r="D103" s="5" t="str">
         <f>VLOOKUP(C103,[1]life_events!$A$1:$B$1365,2)</f>
-        <v>Battery Not Qualified</v>
+        <v>Load Sharing Fault</v>
       </c>
       <c r="E103" s="5"/>
       <c r="F103" s="8"/>
-      <c r="G103" s="16">
+      <c r="G103" s="15">
         <v>0</v>
       </c>
-      <c r="H103" s="17">
+      <c r="H103" s="16">
         <v>0</v>
       </c>
-      <c r="I103" s="17">
+      <c r="I103" s="16">
         <v>1</v>
       </c>
-      <c r="J103" s="17" t="s">
+      <c r="J103" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="K103" s="16" t="s">
+      <c r="K103" s="15" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="104" spans="1:11" s="10" customFormat="1" ht="15" customHeight="1">
       <c r="A104" s="7">
-        <v>5150</v>
+        <v>5154</v>
       </c>
       <c r="B104" s="10" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="C104" s="6">
-        <v>382</v>
+        <v>1848</v>
       </c>
       <c r="D104" s="5" t="str">
         <f>VLOOKUP(C104,[1]life_events!$A$1:$B$1365,2)</f>
-        <v>Battery reverse connected</v>
+        <v>DC Bus Abnormal</v>
       </c>
       <c r="E104" s="5"/>
       <c r="F104" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="G104" s="16">
+      <c r="G104" s="15">
         <v>0</v>
       </c>
-      <c r="H104" s="17">
+      <c r="H104" s="16">
         <v>0</v>
       </c>
-      <c r="I104" s="17">
+      <c r="I104" s="16">
         <v>1</v>
       </c>
-      <c r="J104" s="17" t="s">
+      <c r="J104" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="K104" s="16" t="s">
+      <c r="K104" s="15" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="105" spans="1:11" s="10" customFormat="1" ht="15" customHeight="1">
       <c r="A105" s="7">
-        <v>5151</v>
+        <v>5155</v>
       </c>
       <c r="B105" s="10" t="s">
-        <v>177</v>
+        <v>189</v>
       </c>
       <c r="C105" s="6">
-        <v>1683</v>
+        <v>1668</v>
       </c>
       <c r="D105" s="5" t="str">
         <f>VLOOKUP(C105,[1]life_events!$A$1:$B$1365,2)</f>
-        <v>Battery converter fail</v>
+        <v>main neutral lost</v>
       </c>
       <c r="E105" s="5"/>
       <c r="F105" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="G105" s="16">
+      <c r="G105" s="15">
         <v>0</v>
       </c>
-      <c r="H105" s="17">
+      <c r="H105" s="16">
         <v>0</v>
       </c>
-      <c r="I105" s="17">
+      <c r="I105" s="16">
         <v>1</v>
       </c>
-      <c r="J105" s="17" t="s">
+      <c r="J105" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="K105" s="16" t="s">
+      <c r="K105" s="15" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="106" spans="1:11" s="10" customFormat="1" ht="15" customHeight="1">
       <c r="A106" s="7">
-        <v>5152</v>
+        <v>5156</v>
       </c>
       <c r="B106" s="10" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="C106" s="6">
-        <v>617</v>
+        <v>1849</v>
       </c>
       <c r="D106" s="5" t="str">
         <f>VLOOKUP(C106,[1]life_events!$A$1:$B$1365,2)</f>
-        <v>Inverter static switch open</v>
+        <v>Load Impact Transfer</v>
       </c>
       <c r="E106" s="5"/>
-      <c r="F106" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="G106" s="16">
+      <c r="F106" s="8"/>
+      <c r="G106" s="15">
         <v>0</v>
       </c>
-      <c r="H106" s="17">
+      <c r="H106" s="16">
         <v>0</v>
       </c>
-      <c r="I106" s="17">
+      <c r="I106" s="16">
         <v>1</v>
       </c>
-      <c r="J106" s="17" t="s">
+      <c r="J106" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="K106" s="16" t="s">
+      <c r="K106" s="15" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="107" spans="1:11" s="10" customFormat="1" ht="15" customHeight="1">
       <c r="A107" s="7">
-        <v>5153</v>
+        <v>5157</v>
       </c>
       <c r="B107" s="10" t="s">
-        <v>183</v>
+        <v>195</v>
       </c>
       <c r="C107" s="6">
-        <v>1847</v>
+        <v>1850</v>
       </c>
       <c r="D107" s="5" t="str">
         <f>VLOOKUP(C107,[1]life_events!$A$1:$B$1365,2)</f>
-        <v>Load Sharing Fault</v>
+        <v>User Operation Invalid</v>
       </c>
       <c r="E107" s="5"/>
       <c r="F107" s="8"/>
-      <c r="G107" s="16">
+      <c r="G107" s="15">
         <v>0</v>
       </c>
-      <c r="H107" s="17">
+      <c r="H107" s="16">
         <v>0</v>
       </c>
-      <c r="I107" s="17">
+      <c r="I107" s="16">
         <v>1</v>
       </c>
-      <c r="J107" s="17" t="s">
+      <c r="J107" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="K107" s="16" t="s">
+      <c r="K107" s="15" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="108" spans="1:11" s="10" customFormat="1" ht="15" customHeight="1">
       <c r="A108" s="7">
-        <v>5154</v>
+        <v>5158</v>
       </c>
       <c r="B108" s="10" t="s">
-        <v>186</v>
+        <v>198</v>
       </c>
       <c r="C108" s="6">
-        <v>1848</v>
+        <v>1851</v>
       </c>
       <c r="D108" s="5" t="str">
         <f>VLOOKUP(C108,[1]life_events!$A$1:$B$1365,2)</f>
-        <v>DC Bus Abnormal</v>
+        <v>Power Sub Module Fault</v>
       </c>
       <c r="E108" s="5"/>
-      <c r="F108" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="G108" s="16">
+      <c r="F108" s="8"/>
+      <c r="G108" s="15">
         <v>0</v>
       </c>
-      <c r="H108" s="17">
+      <c r="H108" s="16">
         <v>0</v>
       </c>
-      <c r="I108" s="17">
+      <c r="I108" s="16">
         <v>1</v>
       </c>
-      <c r="J108" s="17" t="s">
+      <c r="J108" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="K108" s="16" t="s">
+      <c r="K108" s="15" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="109" spans="1:11" s="10" customFormat="1" ht="15" customHeight="1">
       <c r="A109" s="7">
-        <v>5155</v>
+        <v>5770</v>
       </c>
       <c r="B109" s="10" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
       <c r="C109" s="6">
-        <v>1668</v>
+        <v>166</v>
       </c>
       <c r="D109" s="5" t="str">
         <f>VLOOKUP(C109,[1]life_events!$A$1:$B$1365,2)</f>
-        <v>main neutral lost</v>
-      </c>
-      <c r="E109" s="5"/>
-      <c r="F109" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="G109" s="16">
+        <v>Fan failure</v>
+      </c>
+      <c r="E109" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="F109" s="8"/>
+      <c r="G109" s="15">
         <v>0</v>
       </c>
-      <c r="H109" s="17">
+      <c r="H109" s="16">
         <v>0</v>
       </c>
-      <c r="I109" s="17">
+      <c r="I109" s="16">
         <v>1</v>
       </c>
-      <c r="J109" s="17" t="s">
+      <c r="J109" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="K109" s="16" t="s">
+      <c r="K109" s="15" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="110" spans="1:11" s="10" customFormat="1" ht="15" customHeight="1">
       <c r="A110" s="7">
-        <v>5156</v>
+        <v>5771</v>
       </c>
       <c r="B110" s="10" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="C110" s="6">
-        <v>1849</v>
+        <v>611</v>
       </c>
       <c r="D110" s="5" t="str">
         <f>VLOOKUP(C110,[1]life_events!$A$1:$B$1365,2)</f>
-        <v>Load Impact Transfer</v>
-      </c>
-      <c r="E110" s="5"/>
-      <c r="F110" s="8"/>
-      <c r="G110" s="16">
+        <v>Overload</v>
+      </c>
+      <c r="E110" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="F110" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G110" s="15">
         <v>0</v>
       </c>
-      <c r="H110" s="17">
+      <c r="H110" s="16">
         <v>0</v>
       </c>
-      <c r="I110" s="17">
+      <c r="I110" s="16">
         <v>1</v>
       </c>
-      <c r="J110" s="17" t="s">
+      <c r="J110" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="K110" s="16" t="s">
+      <c r="K110" s="15" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="111" spans="1:11" s="10" customFormat="1" ht="15" customHeight="1">
-      <c r="A111" s="7">
-        <v>5157</v>
-      </c>
-      <c r="B111" s="10" t="s">
-        <v>195</v>
-      </c>
-      <c r="C111" s="6">
-        <v>1850</v>
+      <c r="A111" s="10">
+        <v>4872</v>
+      </c>
+      <c r="B111" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="C111" s="10">
+        <v>607</v>
       </c>
       <c r="D111" s="5" t="str">
         <f>VLOOKUP(C111,[1]life_events!$A$1:$B$1365,2)</f>
-        <v>User Operation Invalid</v>
+        <v>Output load not supplied</v>
       </c>
       <c r="E111" s="5"/>
-      <c r="F111" s="8"/>
-      <c r="G111" s="16">
+      <c r="F111" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G111" s="51">
+        <v>2</v>
+      </c>
+      <c r="H111" s="16">
         <v>0</v>
       </c>
-      <c r="H111" s="17">
-        <v>0</v>
-      </c>
-      <c r="I111" s="17">
+      <c r="I111" s="16">
         <v>1</v>
       </c>
-      <c r="J111" s="17" t="s">
+      <c r="J111" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="K111" s="16" t="s">
+      <c r="K111" s="15" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="112" spans="1:11" s="10" customFormat="1" ht="15" customHeight="1">
-      <c r="A112" s="7">
-        <v>5158</v>
-      </c>
-      <c r="B112" s="10" t="s">
-        <v>198</v>
-      </c>
-      <c r="C112" s="6">
-        <v>1851</v>
+      <c r="A112" s="10">
+        <v>4871</v>
+      </c>
+      <c r="B112" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="C112" s="10">
+        <v>325</v>
       </c>
       <c r="D112" s="5" t="str">
         <f>VLOOKUP(C112,[1]life_events!$A$1:$B$1365,2)</f>
-        <v>Power Sub Module Fault</v>
+        <v>Battery normal</v>
       </c>
       <c r="E112" s="5"/>
       <c r="F112" s="8"/>
-      <c r="G112" s="16">
+      <c r="G112" s="51">
+        <v>2</v>
+      </c>
+      <c r="H112" s="16">
         <v>0</v>
       </c>
-      <c r="H112" s="17">
-        <v>0</v>
-      </c>
-      <c r="I112" s="17">
+      <c r="I112" s="16">
         <v>1</v>
       </c>
-      <c r="J112" s="17" t="s">
+      <c r="J112" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="K112" s="16" t="s">
+      <c r="K112" s="15" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="113" spans="1:11" s="10" customFormat="1" ht="15" customHeight="1">
-      <c r="A113" s="7">
-        <v>5770</v>
-      </c>
-      <c r="B113" s="10" t="s">
-        <v>201</v>
-      </c>
-      <c r="C113" s="6">
-        <v>166</v>
+      <c r="A113" s="10">
+        <v>4871</v>
+      </c>
+      <c r="B113" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="C113" s="10">
+        <v>306</v>
       </c>
       <c r="D113" s="5" t="str">
         <f>VLOOKUP(C113,[1]life_events!$A$1:$B$1365,2)</f>
-        <v>Fan failure</v>
-      </c>
-      <c r="E113" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="F113" s="8"/>
-      <c r="G113" s="16">
+        <v>Flat battery</v>
+      </c>
+      <c r="E113" s="5"/>
+      <c r="F113" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G113" s="51">
+        <v>2</v>
+      </c>
+      <c r="H113" s="16">
         <v>0</v>
       </c>
-      <c r="H113" s="17">
-        <v>0</v>
-      </c>
-      <c r="I113" s="17">
+      <c r="I113" s="16">
         <v>1</v>
       </c>
-      <c r="J113" s="17" t="s">
+      <c r="J113" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="K113" s="16" t="s">
+      <c r="K113" s="15" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="114" spans="1:11" s="10" customFormat="1" ht="15" customHeight="1">
-      <c r="A114" s="7">
-        <v>5771</v>
-      </c>
-      <c r="B114" s="10" t="s">
-        <v>204</v>
-      </c>
-      <c r="C114" s="6">
-        <v>611</v>
+      <c r="A114" s="10">
+        <v>4746</v>
+      </c>
+      <c r="B114" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="C114" s="10">
+        <v>448</v>
       </c>
       <c r="D114" s="5" t="str">
         <f>VLOOKUP(C114,[1]life_events!$A$1:$B$1365,2)</f>
-        <v>Overload</v>
-      </c>
-      <c r="E114" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="F114" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="G114" s="16">
+        <v>Inverter on</v>
+      </c>
+      <c r="E114" s="5"/>
+      <c r="F114" s="8"/>
+      <c r="G114" s="51">
         <v>0</v>
       </c>
-      <c r="H114" s="17">
+      <c r="H114" s="16">
         <v>0</v>
       </c>
-      <c r="I114" s="17">
+      <c r="I114" s="16">
         <v>1</v>
       </c>
-      <c r="J114" s="17" t="s">
+      <c r="J114" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="K114" s="16" t="s">
+      <c r="K114" s="15" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="115" spans="1:11" s="10" customFormat="1" ht="15" customHeight="1">
       <c r="A115" s="10">
-        <v>4872</v>
+        <v>4746</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="C115" s="10">
-        <v>607</v>
+        <v>415</v>
       </c>
       <c r="D115" s="5" t="str">
         <f>VLOOKUP(C115,[1]life_events!$A$1:$B$1365,2)</f>
-        <v>Output load not supplied</v>
+        <v>Inverter off</v>
       </c>
       <c r="E115" s="5"/>
       <c r="F115" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="G115" s="16">
+        <v>9</v>
+      </c>
+      <c r="G115" s="51">
+        <v>1</v>
+      </c>
+      <c r="H115" s="16">
         <v>0</v>
       </c>
-      <c r="H115" s="17">
-        <v>0</v>
-      </c>
-      <c r="I115" s="17">
+      <c r="I115" s="16">
         <v>1</v>
       </c>
-      <c r="J115" s="17" t="s">
+      <c r="J115" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="K115" s="16" t="s">
+      <c r="K115" s="15" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="116" spans="1:11" s="10" customFormat="1" ht="15" customHeight="1">
       <c r="A116" s="10">
-        <v>4871</v>
+        <v>4299</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="C116" s="10">
-        <v>325</v>
+        <v>627</v>
       </c>
       <c r="D116" s="5" t="str">
         <f>VLOOKUP(C116,[1]life_events!$A$1:$B$1365,2)</f>
-        <v>Battery normal</v>
+        <v>Maintenance Bypass switch closed</v>
       </c>
       <c r="E116" s="5"/>
-      <c r="F116" s="8"/>
-      <c r="G116" s="16">
+      <c r="F116" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G116" s="51">
         <v>0</v>
       </c>
-      <c r="H116" s="17">
+      <c r="H116" s="16">
         <v>0</v>
       </c>
-      <c r="I116" s="17">
+      <c r="I116" s="16">
         <v>1</v>
       </c>
-      <c r="J116" s="17" t="s">
+      <c r="J116" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="K116" s="16" t="s">
+      <c r="K116" s="15" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="117" spans="1:11" s="10" customFormat="1" ht="15" customHeight="1">
       <c r="A117" s="10">
-        <v>4871</v>
+        <v>4123</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="C117" s="10">
-        <v>306</v>
+        <v>126</v>
       </c>
       <c r="D117" s="5" t="str">
         <f>VLOOKUP(C117,[1]life_events!$A$1:$B$1365,2)</f>
-        <v>Flat battery</v>
+        <v>Ups Warning</v>
       </c>
       <c r="E117" s="5"/>
       <c r="F117" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="G117" s="16">
+      <c r="G117" s="51">
+        <v>1</v>
+      </c>
+      <c r="H117" s="16">
         <v>0</v>
       </c>
-      <c r="H117" s="17">
-        <v>0</v>
-      </c>
-      <c r="I117" s="17">
+      <c r="I117" s="16">
         <v>1</v>
       </c>
-      <c r="J117" s="17" t="s">
+      <c r="J117" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="K117" s="16" t="s">
+      <c r="K117" s="15" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="118" spans="1:11" s="10" customFormat="1" ht="15" customHeight="1">
       <c r="A118" s="10">
-        <v>4746</v>
+        <v>4123</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="C118" s="10">
-        <v>448</v>
+        <v>1106</v>
       </c>
       <c r="D118" s="5" t="str">
         <f>VLOOKUP(C118,[1]life_events!$A$1:$B$1365,2)</f>
-        <v>Inverter on</v>
+        <v>Warning Alarm active</v>
       </c>
       <c r="E118" s="5"/>
-      <c r="F118" s="8"/>
-      <c r="G118" s="16">
+      <c r="F118" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G118" s="51">
+        <v>1</v>
+      </c>
+      <c r="H118" s="16">
         <v>0</v>
       </c>
-      <c r="H118" s="17">
-        <v>0</v>
-      </c>
-      <c r="I118" s="17">
+      <c r="I118" s="16">
         <v>1</v>
       </c>
-      <c r="J118" s="17" t="s">
+      <c r="J118" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="K118" s="16" t="s">
+      <c r="K118" s="15" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="119" spans="1:11" s="10" customFormat="1" ht="15" customHeight="1">
       <c r="A119" s="10">
-        <v>4746</v>
+        <v>4872</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="C119" s="10">
-        <v>415</v>
+        <v>660</v>
       </c>
       <c r="D119" s="5" t="str">
         <f>VLOOKUP(C119,[1]life_events!$A$1:$B$1365,2)</f>
-        <v>Inverter off</v>
+        <v>Output load supplied by inverter</v>
       </c>
       <c r="E119" s="5"/>
-      <c r="F119" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="G119" s="16">
+      <c r="F119" s="8"/>
+      <c r="G119" s="51">
+        <v>3</v>
+      </c>
+      <c r="H119" s="16">
         <v>0</v>
       </c>
-      <c r="H119" s="17">
-        <v>0</v>
-      </c>
-      <c r="I119" s="17">
+      <c r="I119" s="16">
         <v>1</v>
       </c>
-      <c r="J119" s="17" t="s">
+      <c r="J119" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="K119" s="16" t="s">
+      <c r="K119" s="15" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="120" spans="1:11" s="10" customFormat="1" ht="15" customHeight="1">
       <c r="A120" s="10">
-        <v>4299</v>
+        <v>4872</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="C120" s="10">
-        <v>627</v>
+        <v>621</v>
       </c>
       <c r="D120" s="5" t="str">
         <f>VLOOKUP(C120,[1]life_events!$A$1:$B$1365,2)</f>
-        <v>Maintenance Bypass switch closed</v>
+        <v>Output load supplied by battery</v>
       </c>
       <c r="E120" s="5"/>
       <c r="F120" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="G120" s="16">
+        <v>6</v>
+      </c>
+      <c r="G120" s="51">
+        <v>3</v>
+      </c>
+      <c r="H120" s="16">
         <v>0</v>
       </c>
-      <c r="H120" s="17">
-        <v>0</v>
-      </c>
-      <c r="I120" s="17">
+      <c r="I120" s="16">
         <v>1</v>
       </c>
-      <c r="J120" s="17" t="s">
+      <c r="J120" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="K120" s="16" t="s">
+      <c r="K120" s="15" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="121" spans="1:11" s="10" customFormat="1" ht="15" customHeight="1">
       <c r="A121" s="10">
-        <v>4123</v>
+        <v>4223</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="C121" s="10">
-        <v>126</v>
+        <v>1885</v>
       </c>
       <c r="D121" s="5" t="str">
         <f>VLOOKUP(C121,[1]life_events!$A$1:$B$1365,2)</f>
-        <v>Ups Warning</v>
-      </c>
-      <c r="E121" s="5"/>
-      <c r="F121" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="G121" s="16">
+        <v>Main controller fault</v>
+      </c>
+      <c r="E121" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="F121" s="8"/>
+      <c r="G121" s="51">
+        <v>84</v>
+      </c>
+      <c r="H121" s="16">
         <v>0</v>
       </c>
-      <c r="H121" s="17">
-        <v>0</v>
-      </c>
-      <c r="I121" s="17">
+      <c r="I121" s="16">
         <v>1</v>
       </c>
-      <c r="J121" s="17" t="s">
+      <c r="J121" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="K121" s="16" t="s">
+      <c r="K121" s="15" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="122" spans="1:11" s="10" customFormat="1" ht="15" customHeight="1">
       <c r="A122" s="10">
-        <v>4123</v>
+        <v>4224</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="C122" s="10">
-        <v>1106</v>
+        <v>1885</v>
       </c>
       <c r="D122" s="5" t="str">
         <f>VLOOKUP(C122,[1]life_events!$A$1:$B$1365,2)</f>
-        <v>Warning Alarm active</v>
-      </c>
-      <c r="E122" s="5"/>
-      <c r="F122" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="G122" s="16">
+        <v>Main controller fault</v>
+      </c>
+      <c r="E122" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="F122" s="8"/>
+      <c r="G122" s="51">
+        <v>84</v>
+      </c>
+      <c r="H122" s="16">
         <v>0</v>
       </c>
-      <c r="H122" s="17">
-        <v>0</v>
-      </c>
-      <c r="I122" s="17">
+      <c r="I122" s="16">
         <v>1</v>
       </c>
-      <c r="J122" s="17" t="s">
+      <c r="J122" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="K122" s="16" t="s">
+      <c r="K122" s="15" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="123" spans="1:11" s="10" customFormat="1" ht="15" customHeight="1">
       <c r="A123" s="10">
-        <v>4872</v>
+        <v>4225</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>208</v>
+        <v>226</v>
       </c>
       <c r="C123" s="10">
-        <v>660</v>
+        <v>1885</v>
       </c>
       <c r="D123" s="5" t="str">
         <f>VLOOKUP(C123,[1]life_events!$A$1:$B$1365,2)</f>
-        <v>Output load supplied by inverter</v>
-      </c>
-      <c r="E123" s="5"/>
+        <v>Main controller fault</v>
+      </c>
+      <c r="E123" s="5" t="s">
+        <v>98</v>
+      </c>
       <c r="F123" s="8"/>
-      <c r="G123" s="16">
+      <c r="G123" s="51">
+        <v>84</v>
+      </c>
+      <c r="H123" s="16">
         <v>0</v>
       </c>
-      <c r="H123" s="17">
-        <v>0</v>
-      </c>
-      <c r="I123" s="17">
+      <c r="I123" s="16">
         <v>1</v>
       </c>
-      <c r="J123" s="17" t="s">
+      <c r="J123" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="K123" s="16" t="s">
+      <c r="K123" s="15" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="124" spans="1:11" s="10" customFormat="1" ht="15" customHeight="1">
       <c r="A124" s="10">
-        <v>4872</v>
+        <v>4156</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>208</v>
+        <v>229</v>
       </c>
       <c r="C124" s="10">
-        <v>621</v>
+        <v>316</v>
       </c>
       <c r="D124" s="5" t="str">
         <f>VLOOKUP(C124,[1]life_events!$A$1:$B$1365,2)</f>
-        <v>Output load supplied by battery</v>
+        <v>Battery temperature out of range</v>
       </c>
       <c r="E124" s="5"/>
       <c r="F124" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="G124" s="16">
+        <v>9</v>
+      </c>
+      <c r="G124" s="51">
+        <v>20</v>
+      </c>
+      <c r="H124" s="16">
         <v>0</v>
       </c>
-      <c r="H124" s="17">
-        <v>0</v>
-      </c>
-      <c r="I124" s="17">
+      <c r="I124" s="16">
         <v>1</v>
       </c>
-      <c r="J124" s="17" t="s">
+      <c r="J124" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="K124" s="16" t="s">
+      <c r="K124" s="15" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="125" spans="1:11" s="10" customFormat="1" ht="15" customHeight="1">
-      <c r="A125" s="10">
-        <v>4223</v>
-      </c>
-      <c r="B125" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="C125" s="10">
-        <v>1885</v>
-      </c>
-      <c r="D125" s="5" t="str">
-        <f>VLOOKUP(C125,[1]life_events!$A$1:$B$1365,2)</f>
-        <v>Main controller fault</v>
-      </c>
-      <c r="E125" s="5" t="s">
-        <v>98</v>
-      </c>
+      <c r="A125" s="7"/>
+      <c r="C125" s="6"/>
+      <c r="D125" s="5"/>
+      <c r="E125" s="5"/>
       <c r="F125" s="8"/>
-      <c r="G125" s="16">
-        <v>0</v>
-      </c>
-      <c r="H125" s="17">
-        <v>0</v>
-      </c>
-      <c r="I125" s="17">
-        <v>1</v>
-      </c>
-      <c r="J125" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="K125" s="16" t="s">
-        <v>15</v>
-      </c>
+      <c r="G125" s="15"/>
+      <c r="H125" s="16"/>
+      <c r="I125" s="16"/>
+      <c r="J125" s="16"/>
+      <c r="K125" s="15"/>
     </row>
     <row r="126" spans="1:11" s="10" customFormat="1" ht="15" customHeight="1">
-      <c r="A126" s="10">
-        <v>4224</v>
-      </c>
-      <c r="B126" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="C126" s="10">
-        <v>1885</v>
-      </c>
-      <c r="D126" s="5" t="str">
-        <f>VLOOKUP(C126,[1]life_events!$A$1:$B$1365,2)</f>
-        <v>Main controller fault</v>
-      </c>
-      <c r="E126" s="5" t="s">
-        <v>98</v>
-      </c>
+      <c r="A126" s="7"/>
+      <c r="C126" s="6"/>
+      <c r="D126" s="5"/>
+      <c r="E126" s="5"/>
       <c r="F126" s="8"/>
-      <c r="G126" s="16">
-        <v>0</v>
-      </c>
-      <c r="H126" s="17">
-        <v>0</v>
-      </c>
-      <c r="I126" s="17">
-        <v>1</v>
-      </c>
-      <c r="J126" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="K126" s="16" t="s">
-        <v>15</v>
-      </c>
+      <c r="G126" s="15"/>
+      <c r="H126" s="16"/>
+      <c r="I126" s="16"/>
+      <c r="J126" s="16"/>
+      <c r="K126" s="15"/>
     </row>
     <row r="127" spans="1:11" s="10" customFormat="1" ht="15" customHeight="1">
-      <c r="A127" s="10">
-        <v>4225</v>
-      </c>
-      <c r="B127" s="6" t="s">
-        <v>226</v>
-      </c>
-      <c r="C127" s="10">
-        <v>1885</v>
-      </c>
-      <c r="D127" s="5" t="str">
-        <f>VLOOKUP(C127,[1]life_events!$A$1:$B$1365,2)</f>
-        <v>Main controller fault</v>
-      </c>
-      <c r="E127" s="5" t="s">
-        <v>98</v>
-      </c>
+      <c r="B127" s="6"/>
+      <c r="C127" s="6"/>
+      <c r="D127" s="5"/>
+      <c r="E127" s="5"/>
       <c r="F127" s="8"/>
-      <c r="G127" s="16">
-        <v>0</v>
-      </c>
-      <c r="H127" s="17">
-        <v>0</v>
-      </c>
-      <c r="I127" s="17">
-        <v>1</v>
-      </c>
-      <c r="J127" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="K127" s="16" t="s">
-        <v>15</v>
-      </c>
+      <c r="G127" s="15"/>
+      <c r="H127" s="16"/>
+      <c r="I127" s="16"/>
+      <c r="J127" s="16"/>
+      <c r="K127" s="15"/>
     </row>
     <row r="128" spans="1:11" s="10" customFormat="1" ht="15" customHeight="1">
-      <c r="A128" s="10">
-        <v>4156</v>
-      </c>
-      <c r="B128" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="C128" s="10">
-        <v>316</v>
-      </c>
-      <c r="D128" s="5" t="str">
-        <f>VLOOKUP(C128,[1]life_events!$A$1:$B$1365,2)</f>
-        <v>Battery temperature out of range</v>
-      </c>
+      <c r="A128" s="7"/>
+      <c r="C128" s="6"/>
+      <c r="D128" s="5"/>
       <c r="E128" s="5"/>
-      <c r="F128" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="G128" s="16">
-        <v>0</v>
-      </c>
-      <c r="H128" s="17">
-        <v>0</v>
-      </c>
-      <c r="I128" s="17">
-        <v>1</v>
-      </c>
-      <c r="J128" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="K128" s="16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="129" spans="1:11" s="10" customFormat="1" ht="15" customHeight="1">
-      <c r="A129" s="7"/>
-      <c r="C129" s="6">
-        <v>647</v>
-      </c>
-      <c r="D129" s="5" t="str">
-        <f>VLOOKUP(C129,[1]life_events!$A$1:$B$1365,2)</f>
-        <v>Load on bypass warning</v>
-      </c>
-      <c r="E129" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="F129" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="G129" s="16">
-        <v>0</v>
-      </c>
-      <c r="H129" s="17">
-        <v>0</v>
-      </c>
-      <c r="I129" s="17">
-        <v>1</v>
-      </c>
-      <c r="J129" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="K129" s="16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="130" spans="1:11" s="10" customFormat="1" ht="15" customHeight="1">
-      <c r="A130" s="7"/>
-      <c r="C130" s="6">
-        <v>270</v>
-      </c>
-      <c r="D130" s="5" t="str">
-        <f>VLOOKUP(C130,[1]life_events!$A$1:$B$1365,2)</f>
-        <v>Emergency primary mains failure</v>
-      </c>
-      <c r="E130" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="F130" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="G130" s="16">
-        <v>0</v>
-      </c>
-      <c r="H130" s="17">
-        <v>0</v>
-      </c>
-      <c r="I130" s="17">
-        <v>1</v>
-      </c>
-      <c r="J130" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="K130" s="16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="131" spans="1:11" s="10" customFormat="1" ht="15" customHeight="1">
-      <c r="B131" s="6"/>
-      <c r="C131" s="6">
-        <v>243</v>
-      </c>
-      <c r="D131" s="5" t="str">
-        <f>VLOOKUP(C131,[1]life_events!$A$1:$B$1365,2)</f>
-        <v>Primary Mains power recovered</v>
-      </c>
-      <c r="E131" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="F131" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="G131" s="16">
-        <v>0</v>
-      </c>
-      <c r="H131" s="17">
-        <v>0</v>
-      </c>
-      <c r="I131" s="17">
-        <v>1</v>
-      </c>
-      <c r="J131" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="K131" s="16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="132" spans="1:11" s="10" customFormat="1" ht="15" customHeight="1">
-      <c r="A132" s="7"/>
-      <c r="C132" s="6">
-        <v>572</v>
-      </c>
-      <c r="D132" s="5" t="str">
-        <f>VLOOKUP(C132,[1]life_events!$A$1:$B$1365,2)</f>
-        <v>Emergency reserve supply failure</v>
-      </c>
-      <c r="E132" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="F132" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="G132" s="16">
-        <v>0</v>
-      </c>
-      <c r="H132" s="17">
-        <v>0</v>
-      </c>
-      <c r="I132" s="17">
-        <v>1</v>
-      </c>
-      <c r="J132" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="K132" s="16" t="s">
-        <v>15</v>
-      </c>
+      <c r="F128" s="8"/>
+      <c r="G128" s="15"/>
+      <c r="H128" s="16"/>
+      <c r="I128" s="16"/>
+      <c r="J128" s="16"/>
+      <c r="K128" s="15"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -17051,13 +16821,13 @@
     <col min="7" max="7" width="9.85546875" style="13" customWidth="1"/>
     <col min="8" max="8" width="12" style="12" customWidth="1"/>
     <col min="9" max="9" width="11" style="12" customWidth="1"/>
-    <col min="10" max="10" width="17.28515625" style="49" customWidth="1"/>
-    <col min="11" max="11" width="31" style="50" customWidth="1"/>
+    <col min="10" max="10" width="17.28515625" style="48" customWidth="1"/>
+    <col min="11" max="11" width="31" style="49" customWidth="1"/>
     <col min="12" max="12" width="35.5703125" customWidth="1"/>
-    <col min="13" max="13" width="41.42578125" style="51" customWidth="1"/>
+    <col min="13" max="13" width="41.42578125" style="50" customWidth="1"/>
     <col min="14" max="14" width="90.140625" style="12" customWidth="1"/>
-    <col min="15" max="18" width="9.140625" style="51" customWidth="1"/>
-    <col min="19" max="20" width="9.140625" style="51"/>
+    <col min="15" max="18" width="9.140625" style="50" customWidth="1"/>
+    <col min="19" max="20" width="9.140625" style="50"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="4" customFormat="1" ht="33" customHeight="1">
@@ -17088,7 +16858,7 @@
       <c r="I1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="J1" s="27" t="s">
+      <c r="J1" s="26" t="s">
         <v>31</v>
       </c>
       <c r="K1" s="3" t="s">
@@ -17097,96 +16867,96 @@
       <c r="L1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="28" t="s">
+      <c r="M1" s="27" t="s">
         <v>33</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="O1" s="28"/>
-      <c r="P1" s="28"/>
-      <c r="Q1" s="28"/>
-      <c r="R1" s="28"/>
-      <c r="S1" s="28"/>
-      <c r="T1" s="28"/>
-    </row>
-    <row r="2" spans="1:20" s="36" customFormat="1">
-      <c r="A2" s="29"/>
-      <c r="B2" s="29">
+      <c r="O1" s="27"/>
+      <c r="P1" s="27"/>
+      <c r="Q1" s="27"/>
+      <c r="R1" s="27"/>
+      <c r="S1" s="27"/>
+      <c r="T1" s="27"/>
+    </row>
+    <row r="2" spans="1:20" s="35" customFormat="1">
+      <c r="A2" s="28"/>
+      <c r="B2" s="28">
         <v>0</v>
       </c>
       <c r="C2" s="5" t="str">
         <f>VLOOKUP(B2,[1]life_events!$A$1:$B$1365,2)</f>
         <v>Events Data lost</v>
       </c>
-      <c r="D2" s="29"/>
-      <c r="E2" s="30" t="s">
+      <c r="D2" s="28"/>
+      <c r="E2" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31" t="s">
+      <c r="F2" s="30"/>
+      <c r="G2" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="H2" s="32" t="s">
+      <c r="H2" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="I2" s="32" t="s">
+      <c r="I2" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="J2" s="33" t="s">
+      <c r="J2" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="K2" s="34"/>
-      <c r="L2" s="34"/>
-      <c r="M2" s="35"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="35"/>
-      <c r="P2" s="35"/>
-      <c r="Q2" s="35"/>
-      <c r="R2" s="35"/>
-      <c r="S2" s="35"/>
-      <c r="T2" s="35"/>
-    </row>
-    <row r="3" spans="1:20" s="36" customFormat="1">
-      <c r="A3" s="29"/>
-      <c r="B3" s="29">
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="28"/>
+      <c r="O2" s="34"/>
+      <c r="P2" s="34"/>
+      <c r="Q2" s="34"/>
+      <c r="R2" s="34"/>
+      <c r="S2" s="34"/>
+      <c r="T2" s="34"/>
+    </row>
+    <row r="3" spans="1:20" s="35" customFormat="1">
+      <c r="A3" s="28"/>
+      <c r="B3" s="28">
         <v>1</v>
       </c>
       <c r="C3" s="5" t="str">
         <f>VLOOKUP(B3,[1]life_events!$A$1:$B$1365,2)</f>
         <v>Service active</v>
       </c>
-      <c r="D3" s="29"/>
-      <c r="E3" s="30" t="s">
+      <c r="D3" s="28"/>
+      <c r="E3" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="30" t="s">
+      <c r="F3" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="G3" s="30" t="s">
+      <c r="G3" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="H3" s="32" t="s">
+      <c r="H3" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="I3" s="32" t="s">
+      <c r="I3" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="J3" s="33" t="s">
+      <c r="J3" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="K3" s="34"/>
-      <c r="L3" s="32"/>
-      <c r="M3" s="35"/>
-      <c r="N3" s="29"/>
-      <c r="O3" s="35"/>
-      <c r="P3" s="35"/>
-      <c r="Q3" s="35"/>
-      <c r="R3" s="35"/>
-      <c r="S3" s="35"/>
-      <c r="T3" s="35"/>
-    </row>
-    <row r="4" spans="1:20" s="42" customFormat="1">
+      <c r="K3" s="33"/>
+      <c r="L3" s="31"/>
+      <c r="M3" s="34"/>
+      <c r="N3" s="28"/>
+      <c r="O3" s="34"/>
+      <c r="P3" s="34"/>
+      <c r="Q3" s="34"/>
+      <c r="R3" s="34"/>
+      <c r="S3" s="34"/>
+      <c r="T3" s="34"/>
+    </row>
+    <row r="4" spans="1:20" s="41" customFormat="1">
       <c r="A4" s="5"/>
       <c r="B4" s="5">
         <v>2</v>
@@ -17196,34 +16966,34 @@
         <v>Adjust time</v>
       </c>
       <c r="D4" s="5"/>
-      <c r="E4" s="37" t="s">
+      <c r="E4" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="F4" s="38"/>
-      <c r="G4" s="37" t="s">
+      <c r="F4" s="37"/>
+      <c r="G4" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="H4" s="39" t="s">
+      <c r="H4" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="I4" s="39" t="s">
+      <c r="I4" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="J4" s="33" t="s">
+      <c r="J4" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="K4" s="40"/>
-      <c r="L4" s="39"/>
-      <c r="M4" s="41"/>
+      <c r="K4" s="39"/>
+      <c r="L4" s="38"/>
+      <c r="M4" s="40"/>
       <c r="N4" s="5"/>
-      <c r="O4" s="41"/>
-      <c r="P4" s="41"/>
-      <c r="Q4" s="41"/>
-      <c r="R4" s="41"/>
-      <c r="S4" s="41"/>
-      <c r="T4" s="41"/>
-    </row>
-    <row r="5" spans="1:20" s="42" customFormat="1">
+      <c r="O4" s="40"/>
+      <c r="P4" s="40"/>
+      <c r="Q4" s="40"/>
+      <c r="R4" s="40"/>
+      <c r="S4" s="40"/>
+      <c r="T4" s="40"/>
+    </row>
+    <row r="5" spans="1:20" s="41" customFormat="1">
       <c r="A5" s="5"/>
       <c r="B5" s="5">
         <v>990</v>
@@ -17233,34 +17003,34 @@
         <v>Negative Adjust time</v>
       </c>
       <c r="D5" s="5"/>
-      <c r="E5" s="37" t="s">
+      <c r="E5" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="F5" s="38"/>
-      <c r="G5" s="37" t="s">
+      <c r="F5" s="37"/>
+      <c r="G5" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="H5" s="39" t="s">
+      <c r="H5" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="I5" s="39" t="s">
+      <c r="I5" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="J5" s="33" t="s">
+      <c r="J5" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="K5" s="40"/>
-      <c r="L5" s="39"/>
-      <c r="M5" s="41"/>
+      <c r="K5" s="39"/>
+      <c r="L5" s="38"/>
+      <c r="M5" s="40"/>
       <c r="N5" s="5"/>
-      <c r="O5" s="41"/>
-      <c r="P5" s="41"/>
-      <c r="Q5" s="41"/>
-      <c r="R5" s="41"/>
-      <c r="S5" s="41"/>
-      <c r="T5" s="41"/>
-    </row>
-    <row r="6" spans="1:20" s="42" customFormat="1" ht="30">
+      <c r="O5" s="40"/>
+      <c r="P5" s="40"/>
+      <c r="Q5" s="40"/>
+      <c r="R5" s="40"/>
+      <c r="S5" s="40"/>
+      <c r="T5" s="40"/>
+    </row>
+    <row r="6" spans="1:20" s="41" customFormat="1" ht="30">
       <c r="A6" s="5"/>
       <c r="B6" s="5">
         <v>1659</v>
@@ -17270,36 +17040,36 @@
         <v>UPS board hasn't detected the UPS</v>
       </c>
       <c r="D6" s="5"/>
-      <c r="E6" s="37" t="s">
+      <c r="E6" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="F6" s="37" t="s">
+      <c r="F6" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="G6" s="37" t="s">
+      <c r="G6" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="H6" s="39" t="s">
+      <c r="H6" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="I6" s="39" t="s">
+      <c r="I6" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="J6" s="33" t="s">
+      <c r="J6" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="K6" s="40"/>
-      <c r="L6" s="39"/>
-      <c r="M6" s="41"/>
+      <c r="K6" s="39"/>
+      <c r="L6" s="38"/>
+      <c r="M6" s="40"/>
       <c r="N6" s="5"/>
-      <c r="O6" s="41"/>
-      <c r="P6" s="41"/>
-      <c r="Q6" s="41"/>
-      <c r="R6" s="41"/>
-      <c r="S6" s="41"/>
-      <c r="T6" s="41"/>
-    </row>
-    <row r="7" spans="1:20" s="42" customFormat="1">
+      <c r="O6" s="40"/>
+      <c r="P6" s="40"/>
+      <c r="Q6" s="40"/>
+      <c r="R6" s="40"/>
+      <c r="S6" s="40"/>
+      <c r="T6" s="40"/>
+    </row>
+    <row r="7" spans="1:20" s="41" customFormat="1">
       <c r="A7" s="5"/>
       <c r="B7" s="5">
         <v>1860</v>
@@ -17309,36 +17079,36 @@
         <v>Changed SN or type</v>
       </c>
       <c r="D7" s="5"/>
-      <c r="E7" s="37" t="s">
+      <c r="E7" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="F7" s="38" t="s">
+      <c r="F7" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="37" t="s">
+      <c r="G7" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="H7" s="39" t="s">
+      <c r="H7" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="I7" s="39" t="s">
+      <c r="I7" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="J7" s="33" t="s">
+      <c r="J7" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="K7" s="40"/>
-      <c r="L7" s="39"/>
-      <c r="M7" s="41"/>
+      <c r="K7" s="39"/>
+      <c r="L7" s="38"/>
+      <c r="M7" s="40"/>
       <c r="N7" s="5"/>
-      <c r="O7" s="41"/>
-      <c r="P7" s="41"/>
-      <c r="Q7" s="41"/>
-      <c r="R7" s="41"/>
-      <c r="S7" s="41"/>
-      <c r="T7" s="41"/>
-    </row>
-    <row r="8" spans="1:20" s="42" customFormat="1" ht="30">
+      <c r="O7" s="40"/>
+      <c r="P7" s="40"/>
+      <c r="Q7" s="40"/>
+      <c r="R7" s="40"/>
+      <c r="S7" s="40"/>
+      <c r="T7" s="40"/>
+    </row>
+    <row r="8" spans="1:20" s="41" customFormat="1" ht="30">
       <c r="A8" s="5"/>
       <c r="B8" s="5">
         <v>5</v>
@@ -17348,36 +17118,36 @@
         <v>Unit just supplied</v>
       </c>
       <c r="D8" s="5"/>
-      <c r="E8" s="37" t="s">
+      <c r="E8" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="F8" s="37" t="s">
+      <c r="F8" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="G8" s="37" t="s">
+      <c r="G8" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="H8" s="39" t="s">
+      <c r="H8" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="I8" s="39" t="s">
+      <c r="I8" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="J8" s="33" t="s">
+      <c r="J8" s="32" t="s">
         <v>37</v>
       </c>
       <c r="K8" s="6"/>
-      <c r="L8" s="39"/>
-      <c r="M8" s="41"/>
+      <c r="L8" s="38"/>
+      <c r="M8" s="40"/>
       <c r="N8" s="5"/>
-      <c r="O8" s="41"/>
-      <c r="P8" s="41"/>
-      <c r="Q8" s="41"/>
-      <c r="R8" s="41"/>
-      <c r="S8" s="41"/>
-      <c r="T8" s="41"/>
-    </row>
-    <row r="9" spans="1:20" s="42" customFormat="1">
+      <c r="O8" s="40"/>
+      <c r="P8" s="40"/>
+      <c r="Q8" s="40"/>
+      <c r="R8" s="40"/>
+      <c r="S8" s="40"/>
+      <c r="T8" s="40"/>
+    </row>
+    <row r="9" spans="1:20" s="41" customFormat="1">
       <c r="A9" s="5"/>
       <c r="B9" s="5">
         <v>84</v>
@@ -17387,32 +17157,32 @@
         <v>Measures Data lost</v>
       </c>
       <c r="D9" s="5"/>
-      <c r="E9" s="37" t="s">
+      <c r="E9" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="F9" s="38"/>
-      <c r="G9" s="37" t="s">
+      <c r="F9" s="37"/>
+      <c r="G9" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="H9" s="39" t="s">
+      <c r="H9" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="I9" s="39" t="s">
+      <c r="I9" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="J9" s="33" t="s">
+      <c r="J9" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="K9" s="40"/>
-      <c r="L9" s="39"/>
-      <c r="M9" s="41"/>
+      <c r="K9" s="39"/>
+      <c r="L9" s="38"/>
+      <c r="M9" s="40"/>
       <c r="N9" s="5"/>
-      <c r="O9" s="41"/>
-      <c r="P9" s="41"/>
-      <c r="Q9" s="41"/>
-      <c r="R9" s="41"/>
-      <c r="S9" s="41"/>
-      <c r="T9" s="41"/>
+      <c r="O9" s="40"/>
+      <c r="P9" s="40"/>
+      <c r="Q9" s="40"/>
+      <c r="R9" s="40"/>
+      <c r="S9" s="40"/>
+      <c r="T9" s="40"/>
     </row>
     <row r="10" spans="1:20" s="10" customFormat="1">
       <c r="A10" s="7">
@@ -17435,33 +17205,33 @@
       <c r="G10" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="H10" s="43" t="s">
+      <c r="H10" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="I10" s="43" t="s">
+      <c r="I10" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="J10" s="33" t="s">
+      <c r="J10" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="K10" s="44" t="s">
+      <c r="K10" s="43" t="s">
         <v>44</v>
       </c>
       <c r="L10" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="M10" s="45" t="s">
+      <c r="M10" s="44" t="s">
         <v>45</v>
       </c>
       <c r="N10" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="O10" s="45"/>
-      <c r="P10" s="45"/>
-      <c r="Q10" s="45"/>
-      <c r="R10" s="45"/>
-      <c r="S10" s="45"/>
-      <c r="T10" s="45"/>
+      <c r="O10" s="44"/>
+      <c r="P10" s="44"/>
+      <c r="Q10" s="44"/>
+      <c r="R10" s="44"/>
+      <c r="S10" s="44"/>
+      <c r="T10" s="44"/>
     </row>
     <row r="11" spans="1:20" s="10" customFormat="1" ht="30">
       <c r="A11" s="7">
@@ -17484,33 +17254,33 @@
       <c r="G11" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="H11" s="43" t="s">
+      <c r="H11" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="I11" s="43" t="s">
+      <c r="I11" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="J11" s="33" t="s">
+      <c r="J11" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="K11" s="44" t="s">
+      <c r="K11" s="43" t="s">
         <v>47</v>
       </c>
       <c r="L11" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="M11" s="45" t="s">
+      <c r="M11" s="44" t="s">
         <v>49</v>
       </c>
       <c r="N11" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="O11" s="45"/>
-      <c r="P11" s="45"/>
-      <c r="Q11" s="45"/>
-      <c r="R11" s="45"/>
-      <c r="S11" s="45"/>
-      <c r="T11" s="45"/>
+      <c r="O11" s="44"/>
+      <c r="P11" s="44"/>
+      <c r="Q11" s="44"/>
+      <c r="R11" s="44"/>
+      <c r="S11" s="44"/>
+      <c r="T11" s="44"/>
     </row>
     <row r="12" spans="1:20" s="10" customFormat="1">
       <c r="A12" s="7">
@@ -17531,33 +17301,33 @@
       <c r="G12" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="H12" s="43" t="s">
+      <c r="H12" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="I12" s="43" t="s">
+      <c r="I12" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="J12" s="33" t="s">
+      <c r="J12" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="K12" s="44" t="s">
+      <c r="K12" s="43" t="s">
         <v>51</v>
       </c>
       <c r="L12" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="M12" s="45" t="s">
+      <c r="M12" s="44" t="s">
         <v>53</v>
       </c>
       <c r="N12" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="O12" s="45"/>
-      <c r="P12" s="45"/>
-      <c r="Q12" s="45"/>
-      <c r="R12" s="45"/>
-      <c r="S12" s="45"/>
-      <c r="T12" s="45"/>
+      <c r="O12" s="44"/>
+      <c r="P12" s="44"/>
+      <c r="Q12" s="44"/>
+      <c r="R12" s="44"/>
+      <c r="S12" s="44"/>
+      <c r="T12" s="44"/>
     </row>
     <row r="13" spans="1:20" s="10" customFormat="1">
       <c r="A13" s="7">
@@ -17578,33 +17348,33 @@
       <c r="G13" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="H13" s="43" t="s">
+      <c r="H13" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="I13" s="43" t="s">
+      <c r="I13" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="J13" s="33" t="s">
+      <c r="J13" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="K13" s="44" t="s">
+      <c r="K13" s="43" t="s">
         <v>55</v>
       </c>
       <c r="L13" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="M13" s="45" t="s">
+      <c r="M13" s="44" t="s">
         <v>56</v>
       </c>
       <c r="N13" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="O13" s="45"/>
-      <c r="P13" s="45"/>
-      <c r="Q13" s="45"/>
-      <c r="R13" s="45"/>
-      <c r="S13" s="45"/>
-      <c r="T13" s="45"/>
+      <c r="O13" s="44"/>
+      <c r="P13" s="44"/>
+      <c r="Q13" s="44"/>
+      <c r="R13" s="44"/>
+      <c r="S13" s="44"/>
+      <c r="T13" s="44"/>
     </row>
     <row r="14" spans="1:20" s="10" customFormat="1">
       <c r="A14" s="7">
@@ -17627,33 +17397,33 @@
       <c r="G14" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="H14" s="43" t="s">
+      <c r="H14" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="I14" s="43" t="s">
+      <c r="I14" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="J14" s="33" t="s">
+      <c r="J14" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="K14" s="44" t="s">
+      <c r="K14" s="43" t="s">
         <v>58</v>
       </c>
       <c r="L14" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="M14" s="45" t="s">
+      <c r="M14" s="44" t="s">
         <v>59</v>
       </c>
       <c r="N14" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="O14" s="45"/>
-      <c r="P14" s="45"/>
-      <c r="Q14" s="45"/>
-      <c r="R14" s="45"/>
-      <c r="S14" s="45"/>
-      <c r="T14" s="45"/>
+      <c r="O14" s="44"/>
+      <c r="P14" s="44"/>
+      <c r="Q14" s="44"/>
+      <c r="R14" s="44"/>
+      <c r="S14" s="44"/>
+      <c r="T14" s="44"/>
     </row>
     <row r="15" spans="1:20" s="10" customFormat="1">
       <c r="A15" s="7">
@@ -17676,33 +17446,33 @@
       <c r="G15" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="H15" s="43" t="s">
+      <c r="H15" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="I15" s="43" t="s">
+      <c r="I15" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="J15" s="33" t="s">
+      <c r="J15" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="K15" s="44" t="s">
+      <c r="K15" s="43" t="s">
         <v>61</v>
       </c>
       <c r="L15" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="M15" s="45" t="s">
+      <c r="M15" s="44" t="s">
         <v>62</v>
       </c>
       <c r="N15" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="O15" s="45"/>
-      <c r="P15" s="45"/>
-      <c r="Q15" s="45"/>
-      <c r="R15" s="45"/>
-      <c r="S15" s="45"/>
-      <c r="T15" s="45"/>
+      <c r="O15" s="44"/>
+      <c r="P15" s="44"/>
+      <c r="Q15" s="44"/>
+      <c r="R15" s="44"/>
+      <c r="S15" s="44"/>
+      <c r="T15" s="44"/>
     </row>
     <row r="16" spans="1:20" s="10" customFormat="1">
       <c r="A16" s="7">
@@ -17725,31 +17495,31 @@
       <c r="G16" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="H16" s="43" t="s">
+      <c r="H16" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="I16" s="43" t="s">
+      <c r="I16" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="J16" s="33" t="s">
+      <c r="J16" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="K16" s="44" t="s">
+      <c r="K16" s="43" t="s">
         <v>64</v>
       </c>
       <c r="L16" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="M16" s="45"/>
+      <c r="M16" s="44"/>
       <c r="N16" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="O16" s="45"/>
-      <c r="P16" s="45"/>
-      <c r="Q16" s="45"/>
-      <c r="R16" s="45"/>
-      <c r="S16" s="45"/>
-      <c r="T16" s="45"/>
+      <c r="O16" s="44"/>
+      <c r="P16" s="44"/>
+      <c r="Q16" s="44"/>
+      <c r="R16" s="44"/>
+      <c r="S16" s="44"/>
+      <c r="T16" s="44"/>
     </row>
     <row r="17" spans="1:20" s="10" customFormat="1">
       <c r="A17" s="7">
@@ -17772,31 +17542,31 @@
       <c r="G17" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="H17" s="43" t="s">
+      <c r="H17" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="I17" s="43" t="s">
+      <c r="I17" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="J17" s="33" t="s">
+      <c r="J17" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="K17" s="44" t="s">
+      <c r="K17" s="43" t="s">
         <v>67</v>
       </c>
       <c r="L17" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="M17" s="45"/>
+      <c r="M17" s="44"/>
       <c r="N17" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="O17" s="45"/>
-      <c r="P17" s="45"/>
-      <c r="Q17" s="45"/>
-      <c r="R17" s="45"/>
-      <c r="S17" s="45"/>
-      <c r="T17" s="45"/>
+      <c r="O17" s="44"/>
+      <c r="P17" s="44"/>
+      <c r="Q17" s="44"/>
+      <c r="R17" s="44"/>
+      <c r="S17" s="44"/>
+      <c r="T17" s="44"/>
     </row>
     <row r="18" spans="1:20" s="10" customFormat="1">
       <c r="A18" s="7">
@@ -17817,31 +17587,31 @@
       <c r="G18" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="H18" s="43" t="s">
+      <c r="H18" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="I18" s="43" t="s">
+      <c r="I18" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="J18" s="33" t="s">
+      <c r="J18" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="K18" s="44" t="s">
+      <c r="K18" s="43" t="s">
         <v>70</v>
       </c>
       <c r="L18" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="M18" s="45"/>
+      <c r="M18" s="44"/>
       <c r="N18" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="O18" s="45"/>
-      <c r="P18" s="45"/>
-      <c r="Q18" s="45"/>
-      <c r="R18" s="45"/>
-      <c r="S18" s="45"/>
-      <c r="T18" s="45"/>
+      <c r="O18" s="44"/>
+      <c r="P18" s="44"/>
+      <c r="Q18" s="44"/>
+      <c r="R18" s="44"/>
+      <c r="S18" s="44"/>
+      <c r="T18" s="44"/>
     </row>
     <row r="19" spans="1:20" s="10" customFormat="1">
       <c r="A19" s="7">
@@ -17862,31 +17632,31 @@
       <c r="G19" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="H19" s="43" t="s">
+      <c r="H19" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="I19" s="43" t="s">
+      <c r="I19" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="J19" s="33" t="s">
+      <c r="J19" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="K19" s="44" t="s">
+      <c r="K19" s="43" t="s">
         <v>73</v>
       </c>
       <c r="L19" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="M19" s="45"/>
+      <c r="M19" s="44"/>
       <c r="N19" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="O19" s="45"/>
-      <c r="P19" s="45"/>
-      <c r="Q19" s="45"/>
-      <c r="R19" s="45"/>
-      <c r="S19" s="45"/>
-      <c r="T19" s="45"/>
+      <c r="O19" s="44"/>
+      <c r="P19" s="44"/>
+      <c r="Q19" s="44"/>
+      <c r="R19" s="44"/>
+      <c r="S19" s="44"/>
+      <c r="T19" s="44"/>
     </row>
     <row r="20" spans="1:20" s="10" customFormat="1">
       <c r="A20" s="7">
@@ -17907,31 +17677,31 @@
       <c r="G20" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="H20" s="43" t="s">
+      <c r="H20" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="I20" s="43" t="s">
+      <c r="I20" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="J20" s="33" t="s">
+      <c r="J20" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="K20" s="44" t="s">
+      <c r="K20" s="43" t="s">
         <v>76</v>
       </c>
       <c r="L20" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="M20" s="45"/>
+      <c r="M20" s="44"/>
       <c r="N20" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="O20" s="45"/>
-      <c r="P20" s="45"/>
-      <c r="Q20" s="45"/>
-      <c r="R20" s="45"/>
-      <c r="S20" s="45"/>
-      <c r="T20" s="45"/>
+      <c r="O20" s="44"/>
+      <c r="P20" s="44"/>
+      <c r="Q20" s="44"/>
+      <c r="R20" s="44"/>
+      <c r="S20" s="44"/>
+      <c r="T20" s="44"/>
     </row>
     <row r="21" spans="1:20" s="10" customFormat="1">
       <c r="A21" s="7">
@@ -17954,31 +17724,31 @@
       <c r="G21" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="H21" s="43" t="s">
+      <c r="H21" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="I21" s="43" t="s">
+      <c r="I21" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="J21" s="33" t="s">
+      <c r="J21" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="K21" s="44" t="s">
+      <c r="K21" s="43" t="s">
         <v>79</v>
       </c>
       <c r="L21" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="M21" s="45"/>
+      <c r="M21" s="44"/>
       <c r="N21" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="O21" s="45"/>
-      <c r="P21" s="45"/>
-      <c r="Q21" s="45"/>
-      <c r="R21" s="45"/>
-      <c r="S21" s="45"/>
-      <c r="T21" s="45"/>
+      <c r="O21" s="44"/>
+      <c r="P21" s="44"/>
+      <c r="Q21" s="44"/>
+      <c r="R21" s="44"/>
+      <c r="S21" s="44"/>
+      <c r="T21" s="44"/>
     </row>
     <row r="22" spans="1:20" s="10" customFormat="1">
       <c r="A22" s="7">
@@ -17999,31 +17769,31 @@
       <c r="G22" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="H22" s="43" t="s">
+      <c r="H22" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="I22" s="43" t="s">
+      <c r="I22" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="J22" s="33" t="s">
+      <c r="J22" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="K22" s="44" t="s">
+      <c r="K22" s="43" t="s">
         <v>82</v>
       </c>
       <c r="L22" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="M22" s="45"/>
+      <c r="M22" s="44"/>
       <c r="N22" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="O22" s="45"/>
-      <c r="P22" s="45"/>
-      <c r="Q22" s="45"/>
-      <c r="R22" s="45"/>
-      <c r="S22" s="45"/>
-      <c r="T22" s="45"/>
+      <c r="O22" s="44"/>
+      <c r="P22" s="44"/>
+      <c r="Q22" s="44"/>
+      <c r="R22" s="44"/>
+      <c r="S22" s="44"/>
+      <c r="T22" s="44"/>
     </row>
     <row r="23" spans="1:20" s="10" customFormat="1">
       <c r="A23" s="7">
@@ -18046,33 +17816,33 @@
       <c r="G23" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="H23" s="46" t="s">
+      <c r="H23" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="I23" s="46" t="s">
+      <c r="I23" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="J23" s="33" t="s">
+      <c r="J23" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="K23" s="44" t="s">
+      <c r="K23" s="43" t="s">
         <v>86</v>
       </c>
       <c r="L23" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="M23" s="45" t="s">
+      <c r="M23" s="44" t="s">
         <v>88</v>
       </c>
       <c r="N23" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="O23" s="45"/>
-      <c r="P23" s="45"/>
-      <c r="Q23" s="45"/>
-      <c r="R23" s="45"/>
-      <c r="S23" s="45"/>
-      <c r="T23" s="45"/>
+      <c r="O23" s="44"/>
+      <c r="P23" s="44"/>
+      <c r="Q23" s="44"/>
+      <c r="R23" s="44"/>
+      <c r="S23" s="44"/>
+      <c r="T23" s="44"/>
     </row>
     <row r="24" spans="1:20" s="10" customFormat="1">
       <c r="A24" s="7">
@@ -18095,33 +17865,33 @@
       <c r="G24" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="H24" s="43" t="s">
+      <c r="H24" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="I24" s="43" t="s">
+      <c r="I24" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="J24" s="33" t="s">
+      <c r="J24" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="K24" s="44" t="s">
+      <c r="K24" s="43" t="s">
         <v>90</v>
       </c>
       <c r="L24" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="M24" s="45" t="s">
+      <c r="M24" s="44" t="s">
         <v>92</v>
       </c>
       <c r="N24" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="O24" s="45"/>
-      <c r="P24" s="45"/>
-      <c r="Q24" s="45"/>
-      <c r="R24" s="45"/>
-      <c r="S24" s="45"/>
-      <c r="T24" s="45"/>
+      <c r="O24" s="44"/>
+      <c r="P24" s="44"/>
+      <c r="Q24" s="44"/>
+      <c r="R24" s="44"/>
+      <c r="S24" s="44"/>
+      <c r="T24" s="44"/>
     </row>
     <row r="25" spans="1:20" s="10" customFormat="1">
       <c r="A25" s="7">
@@ -18144,33 +17914,33 @@
       <c r="G25" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="H25" s="43" t="s">
+      <c r="H25" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="I25" s="43" t="s">
+      <c r="I25" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="J25" s="33" t="s">
+      <c r="J25" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="K25" s="44" t="s">
+      <c r="K25" s="43" t="s">
         <v>94</v>
       </c>
       <c r="L25" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="M25" s="45" t="s">
+      <c r="M25" s="44" t="s">
         <v>96</v>
       </c>
       <c r="N25" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="O25" s="45"/>
-      <c r="P25" s="45"/>
-      <c r="Q25" s="45"/>
-      <c r="R25" s="45"/>
-      <c r="S25" s="45"/>
-      <c r="T25" s="45"/>
+      <c r="O25" s="44"/>
+      <c r="P25" s="44"/>
+      <c r="Q25" s="44"/>
+      <c r="R25" s="44"/>
+      <c r="S25" s="44"/>
+      <c r="T25" s="44"/>
     </row>
     <row r="26" spans="1:20" s="10" customFormat="1">
       <c r="A26" s="7">
@@ -18195,33 +17965,33 @@
       <c r="G26" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="H26" s="43" t="s">
+      <c r="H26" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="I26" s="43" t="s">
+      <c r="I26" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="J26" s="33" t="s">
+      <c r="J26" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="K26" s="44" t="s">
+      <c r="K26" s="43" t="s">
         <v>99</v>
       </c>
       <c r="L26" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="M26" s="45" t="s">
+      <c r="M26" s="44" t="s">
         <v>101</v>
       </c>
       <c r="N26" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="O26" s="45"/>
-      <c r="P26" s="45"/>
-      <c r="Q26" s="45"/>
-      <c r="R26" s="45"/>
-      <c r="S26" s="45"/>
-      <c r="T26" s="45"/>
+      <c r="O26" s="44"/>
+      <c r="P26" s="44"/>
+      <c r="Q26" s="44"/>
+      <c r="R26" s="44"/>
+      <c r="S26" s="44"/>
+      <c r="T26" s="44"/>
     </row>
     <row r="27" spans="1:20" s="10" customFormat="1">
       <c r="A27" s="7">
@@ -18246,33 +18016,33 @@
       <c r="G27" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="H27" s="43" t="s">
+      <c r="H27" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="I27" s="43" t="s">
+      <c r="I27" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="J27" s="33" t="s">
+      <c r="J27" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="K27" s="44" t="s">
+      <c r="K27" s="43" t="s">
         <v>103</v>
       </c>
       <c r="L27" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="M27" s="45" t="s">
+      <c r="M27" s="44" t="s">
         <v>101</v>
       </c>
       <c r="N27" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="O27" s="45"/>
-      <c r="P27" s="45"/>
-      <c r="Q27" s="45"/>
-      <c r="R27" s="45"/>
-      <c r="S27" s="45"/>
-      <c r="T27" s="45"/>
+      <c r="O27" s="44"/>
+      <c r="P27" s="44"/>
+      <c r="Q27" s="44"/>
+      <c r="R27" s="44"/>
+      <c r="S27" s="44"/>
+      <c r="T27" s="44"/>
     </row>
     <row r="28" spans="1:20" s="10" customFormat="1">
       <c r="A28" s="7">
@@ -18297,33 +18067,33 @@
       <c r="G28" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="H28" s="43" t="s">
+      <c r="H28" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="I28" s="43" t="s">
+      <c r="I28" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="J28" s="33" t="s">
+      <c r="J28" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="K28" s="44" t="s">
+      <c r="K28" s="43" t="s">
         <v>106</v>
       </c>
       <c r="L28" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="M28" s="45" t="s">
+      <c r="M28" s="44" t="s">
         <v>101</v>
       </c>
       <c r="N28" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="O28" s="45"/>
-      <c r="P28" s="45"/>
-      <c r="Q28" s="45"/>
-      <c r="R28" s="45"/>
-      <c r="S28" s="45"/>
-      <c r="T28" s="45"/>
+      <c r="O28" s="44"/>
+      <c r="P28" s="44"/>
+      <c r="Q28" s="44"/>
+      <c r="R28" s="44"/>
+      <c r="S28" s="44"/>
+      <c r="T28" s="44"/>
     </row>
     <row r="29" spans="1:20" s="10" customFormat="1">
       <c r="A29" s="7">
@@ -18346,33 +18116,33 @@
       <c r="G29" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="H29" s="43" t="s">
+      <c r="H29" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="I29" s="43" t="s">
+      <c r="I29" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="J29" s="33" t="s">
+      <c r="J29" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="K29" s="44" t="s">
+      <c r="K29" s="43" t="s">
         <v>109</v>
       </c>
       <c r="L29" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="M29" s="45" t="s">
+      <c r="M29" s="44" t="s">
         <v>111</v>
       </c>
       <c r="N29" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="O29" s="45"/>
-      <c r="P29" s="45"/>
-      <c r="Q29" s="45"/>
-      <c r="R29" s="45"/>
-      <c r="S29" s="45"/>
-      <c r="T29" s="45"/>
+      <c r="O29" s="44"/>
+      <c r="P29" s="44"/>
+      <c r="Q29" s="44"/>
+      <c r="R29" s="44"/>
+      <c r="S29" s="44"/>
+      <c r="T29" s="44"/>
     </row>
     <row r="30" spans="1:20" s="10" customFormat="1" ht="30">
       <c r="A30" s="7">
@@ -18395,33 +18165,33 @@
       <c r="G30" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="H30" s="43" t="s">
+      <c r="H30" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="I30" s="43" t="s">
+      <c r="I30" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="J30" s="33" t="s">
+      <c r="J30" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="K30" s="44" t="s">
+      <c r="K30" s="43" t="s">
         <v>113</v>
       </c>
       <c r="L30" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="M30" s="45" t="s">
+      <c r="M30" s="44" t="s">
         <v>115</v>
       </c>
       <c r="N30" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="O30" s="45"/>
-      <c r="P30" s="45"/>
-      <c r="Q30" s="45"/>
-      <c r="R30" s="45"/>
-      <c r="S30" s="45"/>
-      <c r="T30" s="45"/>
+      <c r="O30" s="44"/>
+      <c r="P30" s="44"/>
+      <c r="Q30" s="44"/>
+      <c r="R30" s="44"/>
+      <c r="S30" s="44"/>
+      <c r="T30" s="44"/>
     </row>
     <row r="31" spans="1:20" s="10" customFormat="1">
       <c r="A31" s="7">
@@ -18444,31 +18214,31 @@
       <c r="G31" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="H31" s="43" t="s">
+      <c r="H31" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="I31" s="43" t="s">
+      <c r="I31" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="J31" s="33" t="s">
+      <c r="J31" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="K31" s="44" t="s">
+      <c r="K31" s="43" t="s">
         <v>117</v>
       </c>
       <c r="L31" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="M31" s="45"/>
+      <c r="M31" s="44"/>
       <c r="N31" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="O31" s="45"/>
-      <c r="P31" s="45"/>
-      <c r="Q31" s="45"/>
-      <c r="R31" s="45"/>
-      <c r="S31" s="45"/>
-      <c r="T31" s="45"/>
+      <c r="O31" s="44"/>
+      <c r="P31" s="44"/>
+      <c r="Q31" s="44"/>
+      <c r="R31" s="44"/>
+      <c r="S31" s="44"/>
+      <c r="T31" s="44"/>
     </row>
     <row r="32" spans="1:20" s="10" customFormat="1">
       <c r="A32" s="7">
@@ -18491,31 +18261,31 @@
       <c r="G32" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="H32" s="43" t="s">
+      <c r="H32" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="I32" s="43" t="s">
+      <c r="I32" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="J32" s="33" t="s">
+      <c r="J32" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="K32" s="44" t="s">
+      <c r="K32" s="43" t="s">
         <v>120</v>
       </c>
       <c r="L32" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="M32" s="45"/>
+      <c r="M32" s="44"/>
       <c r="N32" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="O32" s="45"/>
-      <c r="P32" s="45"/>
-      <c r="Q32" s="45"/>
-      <c r="R32" s="45"/>
-      <c r="S32" s="45"/>
-      <c r="T32" s="45"/>
+      <c r="O32" s="44"/>
+      <c r="P32" s="44"/>
+      <c r="Q32" s="44"/>
+      <c r="R32" s="44"/>
+      <c r="S32" s="44"/>
+      <c r="T32" s="44"/>
     </row>
     <row r="33" spans="1:20" s="10" customFormat="1">
       <c r="A33" s="7">
@@ -18538,33 +18308,33 @@
       <c r="G33" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="H33" s="43" t="s">
+      <c r="H33" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="I33" s="43" t="s">
+      <c r="I33" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="J33" s="33" t="s">
+      <c r="J33" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="K33" s="44" t="s">
+      <c r="K33" s="43" t="s">
         <v>123</v>
       </c>
       <c r="L33" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="M33" s="45" t="s">
+      <c r="M33" s="44" t="s">
         <v>125</v>
       </c>
       <c r="N33" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="O33" s="45"/>
-      <c r="P33" s="45"/>
-      <c r="Q33" s="45"/>
-      <c r="R33" s="45"/>
-      <c r="S33" s="45"/>
-      <c r="T33" s="45"/>
+      <c r="O33" s="44"/>
+      <c r="P33" s="44"/>
+      <c r="Q33" s="44"/>
+      <c r="R33" s="44"/>
+      <c r="S33" s="44"/>
+      <c r="T33" s="44"/>
     </row>
     <row r="34" spans="1:20" s="10" customFormat="1" ht="45">
       <c r="A34" s="7">
@@ -18587,33 +18357,33 @@
       <c r="G34" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="H34" s="43" t="s">
+      <c r="H34" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="I34" s="43" t="s">
+      <c r="I34" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="J34" s="33" t="s">
+      <c r="J34" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="K34" s="44" t="s">
+      <c r="K34" s="43" t="s">
         <v>127</v>
       </c>
       <c r="L34" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="M34" s="45" t="s">
+      <c r="M34" s="44" t="s">
         <v>129</v>
       </c>
       <c r="N34" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="O34" s="45"/>
-      <c r="P34" s="45"/>
-      <c r="Q34" s="45"/>
-      <c r="R34" s="45"/>
-      <c r="S34" s="45"/>
-      <c r="T34" s="45"/>
+      <c r="O34" s="44"/>
+      <c r="P34" s="44"/>
+      <c r="Q34" s="44"/>
+      <c r="R34" s="44"/>
+      <c r="S34" s="44"/>
+      <c r="T34" s="44"/>
     </row>
     <row r="35" spans="1:20" s="10" customFormat="1">
       <c r="A35" s="7">
@@ -18636,31 +18406,31 @@
       <c r="G35" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="H35" s="43" t="s">
+      <c r="H35" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="I35" s="43" t="s">
+      <c r="I35" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="J35" s="33" t="s">
+      <c r="J35" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="K35" s="44" t="s">
+      <c r="K35" s="43" t="s">
         <v>131</v>
       </c>
       <c r="L35" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="M35" s="45"/>
+      <c r="M35" s="44"/>
       <c r="N35" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="O35" s="45"/>
-      <c r="P35" s="45"/>
-      <c r="Q35" s="45"/>
-      <c r="R35" s="45"/>
-      <c r="S35" s="45"/>
-      <c r="T35" s="45"/>
+      <c r="O35" s="44"/>
+      <c r="P35" s="44"/>
+      <c r="Q35" s="44"/>
+      <c r="R35" s="44"/>
+      <c r="S35" s="44"/>
+      <c r="T35" s="44"/>
     </row>
     <row r="36" spans="1:20" s="10" customFormat="1">
       <c r="A36" s="7">
@@ -18681,31 +18451,31 @@
       <c r="G36" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="H36" s="43" t="s">
+      <c r="H36" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="I36" s="43" t="s">
+      <c r="I36" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="J36" s="33" t="s">
+      <c r="J36" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="K36" s="44" t="s">
+      <c r="K36" s="43" t="s">
         <v>134</v>
       </c>
       <c r="L36" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="M36" s="45"/>
+      <c r="M36" s="44"/>
       <c r="N36" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="O36" s="45"/>
-      <c r="P36" s="45"/>
-      <c r="Q36" s="45"/>
-      <c r="R36" s="45"/>
-      <c r="S36" s="45"/>
-      <c r="T36" s="45"/>
+      <c r="O36" s="44"/>
+      <c r="P36" s="44"/>
+      <c r="Q36" s="44"/>
+      <c r="R36" s="44"/>
+      <c r="S36" s="44"/>
+      <c r="T36" s="44"/>
     </row>
     <row r="37" spans="1:20" s="10" customFormat="1" ht="30">
       <c r="A37" s="7">
@@ -18728,33 +18498,33 @@
       <c r="G37" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="H37" s="43" t="s">
+      <c r="H37" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="I37" s="43" t="s">
+      <c r="I37" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="J37" s="33" t="s">
+      <c r="J37" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="K37" s="44" t="s">
+      <c r="K37" s="43" t="s">
         <v>137</v>
       </c>
       <c r="L37" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="M37" s="45" t="s">
+      <c r="M37" s="44" t="s">
         <v>139</v>
       </c>
       <c r="N37" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="O37" s="45"/>
-      <c r="P37" s="45"/>
-      <c r="Q37" s="45"/>
-      <c r="R37" s="45"/>
-      <c r="S37" s="45"/>
-      <c r="T37" s="45"/>
+      <c r="O37" s="44"/>
+      <c r="P37" s="44"/>
+      <c r="Q37" s="44"/>
+      <c r="R37" s="44"/>
+      <c r="S37" s="44"/>
+      <c r="T37" s="44"/>
     </row>
     <row r="38" spans="1:20" s="10" customFormat="1" ht="30">
       <c r="A38" s="7">
@@ -18777,33 +18547,33 @@
       <c r="G38" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="H38" s="43" t="s">
+      <c r="H38" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="I38" s="43" t="s">
+      <c r="I38" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="J38" s="33" t="s">
+      <c r="J38" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="K38" s="44" t="s">
+      <c r="K38" s="43" t="s">
         <v>142</v>
       </c>
       <c r="L38" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="M38" s="45" t="s">
+      <c r="M38" s="44" t="s">
         <v>144</v>
       </c>
       <c r="N38" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="O38" s="45"/>
-      <c r="P38" s="45"/>
-      <c r="Q38" s="45"/>
-      <c r="R38" s="45"/>
-      <c r="S38" s="45"/>
-      <c r="T38" s="45"/>
+      <c r="O38" s="44"/>
+      <c r="P38" s="44"/>
+      <c r="Q38" s="44"/>
+      <c r="R38" s="44"/>
+      <c r="S38" s="44"/>
+      <c r="T38" s="44"/>
     </row>
     <row r="39" spans="1:20" s="10" customFormat="1">
       <c r="A39" s="7">
@@ -18826,33 +18596,33 @@
       <c r="G39" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="H39" s="43" t="s">
+      <c r="H39" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="I39" s="43" t="s">
+      <c r="I39" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="J39" s="33" t="s">
+      <c r="J39" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="K39" s="44" t="s">
+      <c r="K39" s="43" t="s">
         <v>146</v>
       </c>
       <c r="L39" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="M39" s="45" t="s">
+      <c r="M39" s="44" t="s">
         <v>148</v>
       </c>
       <c r="N39" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="O39" s="45"/>
-      <c r="P39" s="45"/>
-      <c r="Q39" s="45"/>
-      <c r="R39" s="45"/>
-      <c r="S39" s="45"/>
-      <c r="T39" s="45"/>
+      <c r="O39" s="44"/>
+      <c r="P39" s="44"/>
+      <c r="Q39" s="44"/>
+      <c r="R39" s="44"/>
+      <c r="S39" s="44"/>
+      <c r="T39" s="44"/>
     </row>
     <row r="40" spans="1:20" s="10" customFormat="1">
       <c r="A40" s="7">
@@ -18875,33 +18645,33 @@
       <c r="G40" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="H40" s="43" t="s">
+      <c r="H40" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="I40" s="43" t="s">
+      <c r="I40" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="J40" s="33" t="s">
+      <c r="J40" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="K40" s="44" t="s">
+      <c r="K40" s="43" t="s">
         <v>150</v>
       </c>
       <c r="L40" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="M40" s="45" t="s">
+      <c r="M40" s="44" t="s">
         <v>152</v>
       </c>
       <c r="N40" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="O40" s="45"/>
-      <c r="P40" s="45"/>
-      <c r="Q40" s="45"/>
-      <c r="R40" s="45"/>
-      <c r="S40" s="45"/>
-      <c r="T40" s="45"/>
+      <c r="O40" s="44"/>
+      <c r="P40" s="44"/>
+      <c r="Q40" s="44"/>
+      <c r="R40" s="44"/>
+      <c r="S40" s="44"/>
+      <c r="T40" s="44"/>
     </row>
     <row r="41" spans="1:20" s="10" customFormat="1">
       <c r="A41" s="7">
@@ -18924,33 +18694,33 @@
       <c r="G41" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="H41" s="43" t="s">
+      <c r="H41" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="I41" s="43" t="s">
+      <c r="I41" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="J41" s="33" t="s">
+      <c r="J41" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="K41" s="44" t="s">
+      <c r="K41" s="43" t="s">
         <v>154</v>
       </c>
       <c r="L41" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="M41" s="45" t="s">
+      <c r="M41" s="44" t="s">
         <v>156</v>
       </c>
       <c r="N41" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="O41" s="45"/>
-      <c r="P41" s="45"/>
-      <c r="Q41" s="45"/>
-      <c r="R41" s="45"/>
-      <c r="S41" s="45"/>
-      <c r="T41" s="45"/>
+      <c r="O41" s="44"/>
+      <c r="P41" s="44"/>
+      <c r="Q41" s="44"/>
+      <c r="R41" s="44"/>
+      <c r="S41" s="44"/>
+      <c r="T41" s="44"/>
     </row>
     <row r="42" spans="1:20" s="10" customFormat="1" ht="30">
       <c r="A42" s="7">
@@ -18971,33 +18741,33 @@
       <c r="G42" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="H42" s="43" t="s">
+      <c r="H42" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="I42" s="43" t="s">
+      <c r="I42" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="J42" s="33" t="s">
+      <c r="J42" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="K42" s="44" t="s">
+      <c r="K42" s="43" t="s">
         <v>158</v>
       </c>
       <c r="L42" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="M42" s="45" t="s">
+      <c r="M42" s="44" t="s">
         <v>160</v>
       </c>
       <c r="N42" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="O42" s="45"/>
-      <c r="P42" s="45"/>
-      <c r="Q42" s="45"/>
-      <c r="R42" s="45"/>
-      <c r="S42" s="45"/>
-      <c r="T42" s="45"/>
+      <c r="O42" s="44"/>
+      <c r="P42" s="44"/>
+      <c r="Q42" s="44"/>
+      <c r="R42" s="44"/>
+      <c r="S42" s="44"/>
+      <c r="T42" s="44"/>
     </row>
     <row r="43" spans="1:20" s="10" customFormat="1">
       <c r="A43" s="7">
@@ -19020,33 +18790,33 @@
       <c r="G43" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="H43" s="43" t="s">
+      <c r="H43" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="I43" s="43" t="s">
+      <c r="I43" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="J43" s="33" t="s">
+      <c r="J43" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="K43" s="44" t="s">
+      <c r="K43" s="43" t="s">
         <v>162</v>
       </c>
       <c r="L43" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="M43" s="45" t="s">
+      <c r="M43" s="44" t="s">
         <v>164</v>
       </c>
       <c r="N43" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="O43" s="45"/>
-      <c r="P43" s="45"/>
-      <c r="Q43" s="45"/>
-      <c r="R43" s="45"/>
-      <c r="S43" s="45"/>
-      <c r="T43" s="45"/>
+      <c r="O43" s="44"/>
+      <c r="P43" s="44"/>
+      <c r="Q43" s="44"/>
+      <c r="R43" s="44"/>
+      <c r="S43" s="44"/>
+      <c r="T43" s="44"/>
     </row>
     <row r="44" spans="1:20" s="10" customFormat="1">
       <c r="A44" s="7">
@@ -19071,33 +18841,33 @@
       <c r="G44" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="H44" s="43" t="s">
+      <c r="H44" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="I44" s="43" t="s">
+      <c r="I44" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="J44" s="33" t="s">
+      <c r="J44" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="K44" s="44" t="s">
+      <c r="K44" s="43" t="s">
         <v>166</v>
       </c>
       <c r="L44" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="M44" s="45" t="s">
+      <c r="M44" s="44" t="s">
         <v>168</v>
       </c>
       <c r="N44" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="O44" s="45"/>
-      <c r="P44" s="45"/>
-      <c r="Q44" s="45"/>
-      <c r="R44" s="45"/>
-      <c r="S44" s="45"/>
-      <c r="T44" s="45"/>
+      <c r="O44" s="44"/>
+      <c r="P44" s="44"/>
+      <c r="Q44" s="44"/>
+      <c r="R44" s="44"/>
+      <c r="S44" s="44"/>
+      <c r="T44" s="44"/>
     </row>
     <row r="45" spans="1:20" s="10" customFormat="1">
       <c r="A45" s="7">
@@ -19118,31 +18888,31 @@
       <c r="G45" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="H45" s="43" t="s">
+      <c r="H45" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="I45" s="43" t="s">
+      <c r="I45" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="J45" s="33" t="s">
+      <c r="J45" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="K45" s="44" t="s">
+      <c r="K45" s="43" t="s">
         <v>170</v>
       </c>
       <c r="L45" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="M45" s="45"/>
+      <c r="M45" s="44"/>
       <c r="N45" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="O45" s="45"/>
-      <c r="P45" s="45"/>
-      <c r="Q45" s="45"/>
-      <c r="R45" s="45"/>
-      <c r="S45" s="45"/>
-      <c r="T45" s="45"/>
+      <c r="O45" s="44"/>
+      <c r="P45" s="44"/>
+      <c r="Q45" s="44"/>
+      <c r="R45" s="44"/>
+      <c r="S45" s="44"/>
+      <c r="T45" s="44"/>
     </row>
     <row r="46" spans="1:20" s="10" customFormat="1">
       <c r="A46" s="7">
@@ -19165,31 +18935,31 @@
       <c r="G46" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="H46" s="43" t="s">
+      <c r="H46" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="I46" s="43" t="s">
+      <c r="I46" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="J46" s="33" t="s">
+      <c r="J46" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="K46" s="44" t="s">
+      <c r="K46" s="43" t="s">
         <v>173</v>
       </c>
       <c r="L46" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="M46" s="45"/>
+      <c r="M46" s="44"/>
       <c r="N46" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="O46" s="45"/>
-      <c r="P46" s="45"/>
-      <c r="Q46" s="45"/>
-      <c r="R46" s="45"/>
-      <c r="S46" s="45"/>
-      <c r="T46" s="45"/>
+      <c r="O46" s="44"/>
+      <c r="P46" s="44"/>
+      <c r="Q46" s="44"/>
+      <c r="R46" s="44"/>
+      <c r="S46" s="44"/>
+      <c r="T46" s="44"/>
     </row>
     <row r="47" spans="1:20" s="10" customFormat="1">
       <c r="A47" s="7">
@@ -19212,31 +18982,31 @@
       <c r="G47" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="H47" s="43" t="s">
+      <c r="H47" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="I47" s="43" t="s">
+      <c r="I47" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="J47" s="33" t="s">
+      <c r="J47" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="K47" s="44" t="s">
+      <c r="K47" s="43" t="s">
         <v>176</v>
       </c>
       <c r="L47" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="M47" s="45"/>
+      <c r="M47" s="44"/>
       <c r="N47" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="O47" s="45"/>
-      <c r="P47" s="45"/>
-      <c r="Q47" s="45"/>
-      <c r="R47" s="45"/>
-      <c r="S47" s="45"/>
-      <c r="T47" s="45"/>
+      <c r="O47" s="44"/>
+      <c r="P47" s="44"/>
+      <c r="Q47" s="44"/>
+      <c r="R47" s="44"/>
+      <c r="S47" s="44"/>
+      <c r="T47" s="44"/>
     </row>
     <row r="48" spans="1:20" s="10" customFormat="1">
       <c r="A48" s="7">
@@ -19259,31 +19029,31 @@
       <c r="G48" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="H48" s="43" t="s">
+      <c r="H48" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="I48" s="43" t="s">
+      <c r="I48" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="J48" s="33" t="s">
+      <c r="J48" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="K48" s="44" t="s">
+      <c r="K48" s="43" t="s">
         <v>179</v>
       </c>
       <c r="L48" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="M48" s="45"/>
+      <c r="M48" s="44"/>
       <c r="N48" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="O48" s="45"/>
-      <c r="P48" s="45"/>
-      <c r="Q48" s="45"/>
-      <c r="R48" s="45"/>
-      <c r="S48" s="45"/>
-      <c r="T48" s="45"/>
+      <c r="O48" s="44"/>
+      <c r="P48" s="44"/>
+      <c r="Q48" s="44"/>
+      <c r="R48" s="44"/>
+      <c r="S48" s="44"/>
+      <c r="T48" s="44"/>
     </row>
     <row r="49" spans="1:20" s="10" customFormat="1">
       <c r="A49" s="7">
@@ -19304,31 +19074,31 @@
       <c r="G49" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="H49" s="43" t="s">
+      <c r="H49" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="I49" s="43" t="s">
+      <c r="I49" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="J49" s="33" t="s">
+      <c r="J49" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="K49" s="44" t="s">
+      <c r="K49" s="43" t="s">
         <v>182</v>
       </c>
       <c r="L49" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="M49" s="45"/>
+      <c r="M49" s="44"/>
       <c r="N49" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="O49" s="45"/>
-      <c r="P49" s="45"/>
-      <c r="Q49" s="45"/>
-      <c r="R49" s="45"/>
-      <c r="S49" s="45"/>
-      <c r="T49" s="45"/>
+      <c r="O49" s="44"/>
+      <c r="P49" s="44"/>
+      <c r="Q49" s="44"/>
+      <c r="R49" s="44"/>
+      <c r="S49" s="44"/>
+      <c r="T49" s="44"/>
     </row>
     <row r="50" spans="1:20" s="10" customFormat="1">
       <c r="A50" s="7">
@@ -19351,31 +19121,31 @@
       <c r="G50" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="H50" s="43" t="s">
+      <c r="H50" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="I50" s="43" t="s">
+      <c r="I50" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="J50" s="33" t="s">
+      <c r="J50" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="K50" s="44" t="s">
+      <c r="K50" s="43" t="s">
         <v>185</v>
       </c>
       <c r="L50" s="10" t="s">
         <v>186</v>
       </c>
-      <c r="M50" s="45"/>
+      <c r="M50" s="44"/>
       <c r="N50" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="O50" s="45"/>
-      <c r="P50" s="45"/>
-      <c r="Q50" s="45"/>
-      <c r="R50" s="45"/>
-      <c r="S50" s="45"/>
-      <c r="T50" s="45"/>
+      <c r="O50" s="44"/>
+      <c r="P50" s="44"/>
+      <c r="Q50" s="44"/>
+      <c r="R50" s="44"/>
+      <c r="S50" s="44"/>
+      <c r="T50" s="44"/>
     </row>
     <row r="51" spans="1:20" s="10" customFormat="1">
       <c r="A51" s="7">
@@ -19398,31 +19168,31 @@
       <c r="G51" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="H51" s="43" t="s">
+      <c r="H51" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="I51" s="43" t="s">
+      <c r="I51" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="J51" s="33" t="s">
+      <c r="J51" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="K51" s="44" t="s">
+      <c r="K51" s="43" t="s">
         <v>188</v>
       </c>
       <c r="L51" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="M51" s="45"/>
+      <c r="M51" s="44"/>
       <c r="N51" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="O51" s="45"/>
-      <c r="P51" s="45"/>
-      <c r="Q51" s="45"/>
-      <c r="R51" s="45"/>
-      <c r="S51" s="45"/>
-      <c r="T51" s="45"/>
+      <c r="O51" s="44"/>
+      <c r="P51" s="44"/>
+      <c r="Q51" s="44"/>
+      <c r="R51" s="44"/>
+      <c r="S51" s="44"/>
+      <c r="T51" s="44"/>
     </row>
     <row r="52" spans="1:20" s="10" customFormat="1">
       <c r="A52" s="7">
@@ -19443,31 +19213,31 @@
       <c r="G52" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="H52" s="43" t="s">
+      <c r="H52" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="I52" s="43" t="s">
+      <c r="I52" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="J52" s="33" t="s">
+      <c r="J52" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="K52" s="44" t="s">
+      <c r="K52" s="43" t="s">
         <v>191</v>
       </c>
       <c r="L52" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="M52" s="45"/>
+      <c r="M52" s="44"/>
       <c r="N52" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="O52" s="45"/>
-      <c r="P52" s="45"/>
-      <c r="Q52" s="45"/>
-      <c r="R52" s="45"/>
-      <c r="S52" s="45"/>
-      <c r="T52" s="45"/>
+      <c r="O52" s="44"/>
+      <c r="P52" s="44"/>
+      <c r="Q52" s="44"/>
+      <c r="R52" s="44"/>
+      <c r="S52" s="44"/>
+      <c r="T52" s="44"/>
     </row>
     <row r="53" spans="1:20" s="10" customFormat="1">
       <c r="A53" s="7">
@@ -19488,31 +19258,31 @@
       <c r="G53" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="H53" s="43" t="s">
+      <c r="H53" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="I53" s="43" t="s">
+      <c r="I53" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="J53" s="33" t="s">
+      <c r="J53" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="K53" s="44" t="s">
+      <c r="K53" s="43" t="s">
         <v>194</v>
       </c>
       <c r="L53" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="M53" s="45"/>
+      <c r="M53" s="44"/>
       <c r="N53" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="O53" s="45"/>
-      <c r="P53" s="45"/>
-      <c r="Q53" s="45"/>
-      <c r="R53" s="45"/>
-      <c r="S53" s="45"/>
-      <c r="T53" s="45"/>
+      <c r="O53" s="44"/>
+      <c r="P53" s="44"/>
+      <c r="Q53" s="44"/>
+      <c r="R53" s="44"/>
+      <c r="S53" s="44"/>
+      <c r="T53" s="44"/>
     </row>
     <row r="54" spans="1:20" s="10" customFormat="1">
       <c r="A54" s="7">
@@ -19533,31 +19303,31 @@
       <c r="G54" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="H54" s="43" t="s">
+      <c r="H54" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="I54" s="43" t="s">
+      <c r="I54" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="J54" s="33" t="s">
+      <c r="J54" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="K54" s="44" t="s">
+      <c r="K54" s="43" t="s">
         <v>197</v>
       </c>
       <c r="L54" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="M54" s="45"/>
+      <c r="M54" s="44"/>
       <c r="N54" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="O54" s="45"/>
-      <c r="P54" s="45"/>
-      <c r="Q54" s="45"/>
-      <c r="R54" s="45"/>
-      <c r="S54" s="45"/>
-      <c r="T54" s="45"/>
+      <c r="O54" s="44"/>
+      <c r="P54" s="44"/>
+      <c r="Q54" s="44"/>
+      <c r="R54" s="44"/>
+      <c r="S54" s="44"/>
+      <c r="T54" s="44"/>
     </row>
     <row r="55" spans="1:20" s="10" customFormat="1">
       <c r="A55" s="7">
@@ -19580,31 +19350,31 @@
       <c r="G55" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="H55" s="43" t="s">
+      <c r="H55" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="I55" s="43" t="s">
+      <c r="I55" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="J55" s="33" t="s">
+      <c r="J55" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="K55" s="44" t="s">
+      <c r="K55" s="43" t="s">
         <v>200</v>
       </c>
       <c r="L55" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="M55" s="45"/>
+      <c r="M55" s="44"/>
       <c r="N55" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="O55" s="45"/>
-      <c r="P55" s="45"/>
-      <c r="Q55" s="45"/>
-      <c r="R55" s="45"/>
-      <c r="S55" s="45"/>
-      <c r="T55" s="45"/>
+      <c r="O55" s="44"/>
+      <c r="P55" s="44"/>
+      <c r="Q55" s="44"/>
+      <c r="R55" s="44"/>
+      <c r="S55" s="44"/>
+      <c r="T55" s="44"/>
     </row>
     <row r="56" spans="1:20" s="10" customFormat="1">
       <c r="A56" s="7">
@@ -19629,31 +19399,31 @@
       <c r="G56" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="H56" s="43" t="s">
+      <c r="H56" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="I56" s="43" t="s">
+      <c r="I56" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="J56" s="47" t="s">
+      <c r="J56" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="K56" s="44" t="s">
+      <c r="K56" s="43" t="s">
         <v>203</v>
       </c>
       <c r="L56" s="10" t="s">
         <v>204</v>
       </c>
-      <c r="M56" s="45"/>
+      <c r="M56" s="44"/>
       <c r="N56" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="O56" s="45"/>
-      <c r="P56" s="45"/>
-      <c r="Q56" s="45"/>
-      <c r="R56" s="45"/>
-      <c r="S56" s="45"/>
-      <c r="T56" s="45"/>
+      <c r="O56" s="44"/>
+      <c r="P56" s="44"/>
+      <c r="Q56" s="44"/>
+      <c r="R56" s="44"/>
+      <c r="S56" s="44"/>
+      <c r="T56" s="44"/>
     </row>
     <row r="57" spans="1:20" s="10" customFormat="1">
       <c r="A57" s="10">
@@ -19676,13 +19446,13 @@
       <c r="G57" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="H57" s="43" t="s">
+      <c r="H57" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="I57" s="43" t="s">
+      <c r="I57" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="J57" s="48" t="s">
+      <c r="J57" s="47" t="s">
         <v>206</v>
       </c>
       <c r="K57" s="6" t="s">
@@ -19691,14 +19461,14 @@
       <c r="L57" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="M57" s="45"/>
+      <c r="M57" s="44"/>
       <c r="N57" s="7"/>
-      <c r="O57" s="45"/>
-      <c r="P57" s="45"/>
-      <c r="Q57" s="45"/>
-      <c r="R57" s="45"/>
-      <c r="S57" s="45"/>
-      <c r="T57" s="45"/>
+      <c r="O57" s="44"/>
+      <c r="P57" s="44"/>
+      <c r="Q57" s="44"/>
+      <c r="R57" s="44"/>
+      <c r="S57" s="44"/>
+      <c r="T57" s="44"/>
     </row>
     <row r="58" spans="1:20" s="10" customFormat="1">
       <c r="A58" s="10">
@@ -19719,13 +19489,13 @@
       <c r="G58" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="H58" s="43" t="s">
+      <c r="H58" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="I58" s="43" t="s">
+      <c r="I58" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="J58" s="48" t="s">
+      <c r="J58" s="47" t="s">
         <v>206</v>
       </c>
       <c r="K58" s="6" t="s">
@@ -19734,14 +19504,14 @@
       <c r="L58" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="M58" s="45"/>
+      <c r="M58" s="44"/>
       <c r="N58" s="7"/>
-      <c r="O58" s="45"/>
-      <c r="P58" s="45"/>
-      <c r="Q58" s="45"/>
-      <c r="R58" s="45"/>
-      <c r="S58" s="45"/>
-      <c r="T58" s="45"/>
+      <c r="O58" s="44"/>
+      <c r="P58" s="44"/>
+      <c r="Q58" s="44"/>
+      <c r="R58" s="44"/>
+      <c r="S58" s="44"/>
+      <c r="T58" s="44"/>
     </row>
     <row r="59" spans="1:20" s="10" customFormat="1">
       <c r="A59" s="10">
@@ -19764,13 +19534,13 @@
       <c r="G59" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="H59" s="43" t="s">
+      <c r="H59" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="I59" s="43" t="s">
+      <c r="I59" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="J59" s="48" t="s">
+      <c r="J59" s="47" t="s">
         <v>211</v>
       </c>
       <c r="K59" s="6" t="s">
@@ -19779,14 +19549,14 @@
       <c r="L59" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="M59" s="45"/>
+      <c r="M59" s="44"/>
       <c r="N59" s="7"/>
-      <c r="O59" s="45"/>
-      <c r="P59" s="45"/>
-      <c r="Q59" s="45"/>
-      <c r="R59" s="45"/>
-      <c r="S59" s="45"/>
-      <c r="T59" s="45"/>
+      <c r="O59" s="44"/>
+      <c r="P59" s="44"/>
+      <c r="Q59" s="44"/>
+      <c r="R59" s="44"/>
+      <c r="S59" s="44"/>
+      <c r="T59" s="44"/>
     </row>
     <row r="60" spans="1:20" s="10" customFormat="1">
       <c r="A60" s="10">
@@ -19807,13 +19577,13 @@
       <c r="G60" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="H60" s="43" t="s">
+      <c r="H60" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="I60" s="43" t="s">
+      <c r="I60" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="J60" s="48" t="s">
+      <c r="J60" s="47" t="s">
         <v>212</v>
       </c>
       <c r="K60" s="6" t="s">
@@ -19822,14 +19592,14 @@
       <c r="L60" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="M60" s="45"/>
+      <c r="M60" s="44"/>
       <c r="N60" s="7"/>
-      <c r="O60" s="45"/>
-      <c r="P60" s="45"/>
-      <c r="Q60" s="45"/>
-      <c r="R60" s="45"/>
-      <c r="S60" s="45"/>
-      <c r="T60" s="45"/>
+      <c r="O60" s="44"/>
+      <c r="P60" s="44"/>
+      <c r="Q60" s="44"/>
+      <c r="R60" s="44"/>
+      <c r="S60" s="44"/>
+      <c r="T60" s="44"/>
     </row>
     <row r="61" spans="1:20" s="10" customFormat="1">
       <c r="A61" s="10">
@@ -19852,13 +19622,13 @@
       <c r="G61" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="H61" s="43" t="s">
+      <c r="H61" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="I61" s="43" t="s">
+      <c r="I61" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="J61" s="48">
+      <c r="J61" s="47">
         <f>0</f>
         <v>0</v>
       </c>
@@ -19868,14 +19638,14 @@
       <c r="L61" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="M61" s="45"/>
+      <c r="M61" s="44"/>
       <c r="N61" s="7"/>
-      <c r="O61" s="45"/>
-      <c r="P61" s="45"/>
-      <c r="Q61" s="45"/>
-      <c r="R61" s="45"/>
-      <c r="S61" s="45"/>
-      <c r="T61" s="45"/>
+      <c r="O61" s="44"/>
+      <c r="P61" s="44"/>
+      <c r="Q61" s="44"/>
+      <c r="R61" s="44"/>
+      <c r="S61" s="44"/>
+      <c r="T61" s="44"/>
     </row>
     <row r="62" spans="1:20" s="10" customFormat="1">
       <c r="A62" s="10">
@@ -19898,13 +19668,13 @@
       <c r="G62" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="H62" s="43" t="s">
+      <c r="H62" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="I62" s="43" t="s">
+      <c r="I62" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="J62" s="47" t="s">
+      <c r="J62" s="46" t="s">
         <v>37</v>
       </c>
       <c r="K62" s="6" t="s">
@@ -19913,14 +19683,14 @@
       <c r="L62" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="M62" s="45"/>
+      <c r="M62" s="44"/>
       <c r="N62" s="7"/>
-      <c r="O62" s="45"/>
-      <c r="P62" s="45"/>
-      <c r="Q62" s="45"/>
-      <c r="R62" s="45"/>
-      <c r="S62" s="45"/>
-      <c r="T62" s="45"/>
+      <c r="O62" s="44"/>
+      <c r="P62" s="44"/>
+      <c r="Q62" s="44"/>
+      <c r="R62" s="44"/>
+      <c r="S62" s="44"/>
+      <c r="T62" s="44"/>
     </row>
     <row r="63" spans="1:20" s="10" customFormat="1">
       <c r="A63" s="10">
@@ -19943,13 +19713,13 @@
       <c r="G63" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="H63" s="43" t="s">
+      <c r="H63" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="I63" s="43" t="s">
+      <c r="I63" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="J63" s="48">
+      <c r="J63" s="47">
         <f>8</f>
         <v>8</v>
       </c>
@@ -19959,14 +19729,14 @@
       <c r="L63" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="M63" s="45"/>
+      <c r="M63" s="44"/>
       <c r="N63" s="7"/>
-      <c r="O63" s="45"/>
-      <c r="P63" s="45"/>
-      <c r="Q63" s="45"/>
-      <c r="R63" s="45"/>
-      <c r="S63" s="45"/>
-      <c r="T63" s="45"/>
+      <c r="O63" s="44"/>
+      <c r="P63" s="44"/>
+      <c r="Q63" s="44"/>
+      <c r="R63" s="44"/>
+      <c r="S63" s="44"/>
+      <c r="T63" s="44"/>
     </row>
     <row r="64" spans="1:20" s="10" customFormat="1">
       <c r="A64" s="10">
@@ -19989,13 +19759,13 @@
       <c r="G64" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="H64" s="43" t="s">
+      <c r="H64" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="I64" s="43" t="s">
+      <c r="I64" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="J64" s="48">
+      <c r="J64" s="47">
         <f>16</f>
         <v>16</v>
       </c>
@@ -20005,14 +19775,14 @@
       <c r="L64" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="M64" s="45"/>
+      <c r="M64" s="44"/>
       <c r="N64" s="7"/>
-      <c r="O64" s="45"/>
-      <c r="P64" s="45"/>
-      <c r="Q64" s="45"/>
-      <c r="R64" s="45"/>
-      <c r="S64" s="45"/>
-      <c r="T64" s="45"/>
+      <c r="O64" s="44"/>
+      <c r="P64" s="44"/>
+      <c r="Q64" s="44"/>
+      <c r="R64" s="44"/>
+      <c r="S64" s="44"/>
+      <c r="T64" s="44"/>
     </row>
     <row r="65" spans="1:20" s="10" customFormat="1">
       <c r="A65" s="10">
@@ -20033,13 +19803,13 @@
       <c r="G65" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="H65" s="43" t="s">
+      <c r="H65" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="I65" s="43" t="s">
+      <c r="I65" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="J65" s="48" t="s">
+      <c r="J65" s="47" t="s">
         <v>218</v>
       </c>
       <c r="K65" s="6" t="s">
@@ -20048,14 +19818,14 @@
       <c r="L65" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="M65" s="45"/>
+      <c r="M65" s="44"/>
       <c r="N65" s="7"/>
-      <c r="O65" s="45"/>
-      <c r="P65" s="45"/>
-      <c r="Q65" s="45"/>
-      <c r="R65" s="45"/>
-      <c r="S65" s="45"/>
-      <c r="T65" s="45"/>
+      <c r="O65" s="44"/>
+      <c r="P65" s="44"/>
+      <c r="Q65" s="44"/>
+      <c r="R65" s="44"/>
+      <c r="S65" s="44"/>
+      <c r="T65" s="44"/>
     </row>
     <row r="66" spans="1:20" s="10" customFormat="1">
       <c r="A66" s="10">
@@ -20078,13 +19848,13 @@
       <c r="G66" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="H66" s="43" t="s">
+      <c r="H66" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="I66" s="43" t="s">
+      <c r="I66" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="J66" s="48" t="s">
+      <c r="J66" s="47" t="s">
         <v>219</v>
       </c>
       <c r="K66" s="6" t="s">
@@ -20093,14 +19863,14 @@
       <c r="L66" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="M66" s="45"/>
+      <c r="M66" s="44"/>
       <c r="N66" s="7"/>
-      <c r="O66" s="45"/>
-      <c r="P66" s="45"/>
-      <c r="Q66" s="45"/>
-      <c r="R66" s="45"/>
-      <c r="S66" s="45"/>
-      <c r="T66" s="45"/>
+      <c r="O66" s="44"/>
+      <c r="P66" s="44"/>
+      <c r="Q66" s="44"/>
+      <c r="R66" s="44"/>
+      <c r="S66" s="44"/>
+      <c r="T66" s="44"/>
     </row>
     <row r="67" spans="1:20" s="10" customFormat="1">
       <c r="A67" s="10">
@@ -20123,10 +19893,10 @@
       <c r="G67" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="H67" s="43" t="s">
+      <c r="H67" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="I67" s="43" t="s">
+      <c r="I67" s="42" t="s">
         <v>40</v>
       </c>
       <c r="J67" s="6" t="s">
@@ -20138,14 +19908,14 @@
       <c r="L67" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="M67" s="45"/>
+      <c r="M67" s="44"/>
       <c r="N67" s="7"/>
-      <c r="O67" s="45"/>
-      <c r="P67" s="45"/>
-      <c r="Q67" s="45"/>
-      <c r="R67" s="45"/>
-      <c r="S67" s="45"/>
-      <c r="T67" s="45"/>
+      <c r="O67" s="44"/>
+      <c r="P67" s="44"/>
+      <c r="Q67" s="44"/>
+      <c r="R67" s="44"/>
+      <c r="S67" s="44"/>
+      <c r="T67" s="44"/>
     </row>
     <row r="68" spans="1:20" s="10" customFormat="1">
       <c r="A68" s="10">
@@ -20168,10 +19938,10 @@
       <c r="G68" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="H68" s="43" t="s">
+      <c r="H68" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="I68" s="43" t="s">
+      <c r="I68" s="42" t="s">
         <v>40</v>
       </c>
       <c r="J68" s="6" t="s">
@@ -20183,14 +19953,14 @@
       <c r="L68" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="M68" s="45"/>
+      <c r="M68" s="44"/>
       <c r="N68" s="7"/>
-      <c r="O68" s="45"/>
-      <c r="P68" s="45"/>
-      <c r="Q68" s="45"/>
-      <c r="R68" s="45"/>
-      <c r="S68" s="45"/>
-      <c r="T68" s="45"/>
+      <c r="O68" s="44"/>
+      <c r="P68" s="44"/>
+      <c r="Q68" s="44"/>
+      <c r="R68" s="44"/>
+      <c r="S68" s="44"/>
+      <c r="T68" s="44"/>
     </row>
     <row r="69" spans="1:20" s="10" customFormat="1">
       <c r="A69" s="10">
@@ -20213,10 +19983,10 @@
       <c r="G69" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="H69" s="43" t="s">
+      <c r="H69" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="I69" s="43" t="s">
+      <c r="I69" s="42" t="s">
         <v>40</v>
       </c>
       <c r="J69" s="6" t="s">
@@ -20228,14 +19998,14 @@
       <c r="L69" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="M69" s="45"/>
+      <c r="M69" s="44"/>
       <c r="N69" s="7"/>
-      <c r="O69" s="45"/>
-      <c r="P69" s="45"/>
-      <c r="Q69" s="45"/>
-      <c r="R69" s="45"/>
-      <c r="S69" s="45"/>
-      <c r="T69" s="45"/>
+      <c r="O69" s="44"/>
+      <c r="P69" s="44"/>
+      <c r="Q69" s="44"/>
+      <c r="R69" s="44"/>
+      <c r="S69" s="44"/>
+      <c r="T69" s="44"/>
     </row>
     <row r="70" spans="1:20" s="10" customFormat="1">
       <c r="A70" s="10">
@@ -20258,10 +20028,10 @@
       <c r="G70" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="H70" s="43" t="s">
+      <c r="H70" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="I70" s="43" t="s">
+      <c r="I70" s="42" t="s">
         <v>42</v>
       </c>
       <c r="J70" s="6" t="s">
@@ -20273,14 +20043,14 @@
       <c r="L70" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="M70" s="45"/>
+      <c r="M70" s="44"/>
       <c r="N70" s="7"/>
-      <c r="O70" s="45"/>
-      <c r="P70" s="45"/>
-      <c r="Q70" s="45"/>
-      <c r="R70" s="45"/>
-      <c r="S70" s="45"/>
-      <c r="T70" s="45"/>
+      <c r="O70" s="44"/>
+      <c r="P70" s="44"/>
+      <c r="Q70" s="44"/>
+      <c r="R70" s="44"/>
+      <c r="S70" s="44"/>
+      <c r="T70" s="44"/>
     </row>
     <row r="71" spans="1:20" s="10" customFormat="1">
       <c r="A71" s="7"/>
@@ -20303,24 +20073,24 @@
       <c r="G71" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="H71" s="43" t="s">
+      <c r="H71" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="I71" s="43" t="s">
+      <c r="I71" s="42" t="s">
         <v>40</v>
       </c>
       <c r="J71" s="6" t="s">
         <v>231</v>
       </c>
-      <c r="K71" s="44"/>
-      <c r="M71" s="45"/>
+      <c r="K71" s="43"/>
+      <c r="M71" s="44"/>
       <c r="N71" s="7"/>
-      <c r="O71" s="45"/>
-      <c r="P71" s="45"/>
-      <c r="Q71" s="45"/>
-      <c r="R71" s="45"/>
-      <c r="S71" s="45"/>
-      <c r="T71" s="45"/>
+      <c r="O71" s="44"/>
+      <c r="P71" s="44"/>
+      <c r="Q71" s="44"/>
+      <c r="R71" s="44"/>
+      <c r="S71" s="44"/>
+      <c r="T71" s="44"/>
     </row>
     <row r="72" spans="1:20" s="10" customFormat="1">
       <c r="A72" s="7"/>
@@ -20343,24 +20113,24 @@
       <c r="G72" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="H72" s="43" t="s">
+      <c r="H72" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="I72" s="43" t="s">
+      <c r="I72" s="42" t="s">
         <v>40</v>
       </c>
       <c r="J72" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="K72" s="44"/>
-      <c r="M72" s="45"/>
+      <c r="K72" s="43"/>
+      <c r="M72" s="44"/>
       <c r="N72" s="7"/>
-      <c r="O72" s="45"/>
-      <c r="P72" s="45"/>
-      <c r="Q72" s="45"/>
-      <c r="R72" s="45"/>
-      <c r="S72" s="45"/>
-      <c r="T72" s="45"/>
+      <c r="O72" s="44"/>
+      <c r="P72" s="44"/>
+      <c r="Q72" s="44"/>
+      <c r="R72" s="44"/>
+      <c r="S72" s="44"/>
+      <c r="T72" s="44"/>
     </row>
     <row r="73" spans="1:20" s="10" customFormat="1">
       <c r="B73" s="6">
@@ -20382,10 +20152,10 @@
       <c r="G73" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="H73" s="43" t="s">
+      <c r="H73" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="I73" s="43" t="s">
+      <c r="I73" s="42" t="s">
         <v>40</v>
       </c>
       <c r="J73" s="6" t="s">
@@ -20393,14 +20163,14 @@
       </c>
       <c r="K73" s="6"/>
       <c r="L73" s="6"/>
-      <c r="M73" s="45"/>
+      <c r="M73" s="44"/>
       <c r="N73" s="7"/>
-      <c r="O73" s="45"/>
-      <c r="P73" s="45"/>
-      <c r="Q73" s="45"/>
-      <c r="R73" s="45"/>
-      <c r="S73" s="45"/>
-      <c r="T73" s="45"/>
+      <c r="O73" s="44"/>
+      <c r="P73" s="44"/>
+      <c r="Q73" s="44"/>
+      <c r="R73" s="44"/>
+      <c r="S73" s="44"/>
+      <c r="T73" s="44"/>
     </row>
     <row r="74" spans="1:20" s="10" customFormat="1">
       <c r="A74" s="7"/>
@@ -20423,24 +20193,24 @@
       <c r="G74" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="H74" s="43" t="s">
+      <c r="H74" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="I74" s="43" t="s">
+      <c r="I74" s="42" t="s">
         <v>40</v>
       </c>
       <c r="J74" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="K74" s="44"/>
-      <c r="M74" s="45"/>
+      <c r="K74" s="43"/>
+      <c r="M74" s="44"/>
       <c r="N74" s="7"/>
-      <c r="O74" s="45"/>
-      <c r="P74" s="45"/>
-      <c r="Q74" s="45"/>
-      <c r="R74" s="45"/>
-      <c r="S74" s="45"/>
-      <c r="T74" s="45"/>
+      <c r="O74" s="44"/>
+      <c r="P74" s="44"/>
+      <c r="Q74" s="44"/>
+      <c r="R74" s="44"/>
+      <c r="S74" s="44"/>
+      <c r="T74" s="44"/>
     </row>
     <row r="75" spans="1:20" s="10" customFormat="1">
       <c r="A75" s="7"/>
@@ -20453,24 +20223,24 @@
       <c r="H75" s="7"/>
       <c r="I75" s="7"/>
       <c r="J75" s="6"/>
-      <c r="K75" s="44"/>
-      <c r="M75" s="45"/>
+      <c r="K75" s="43"/>
+      <c r="M75" s="44"/>
       <c r="N75" s="7"/>
-      <c r="O75" s="45"/>
-      <c r="P75" s="45"/>
-      <c r="Q75" s="45"/>
-      <c r="R75" s="45"/>
-      <c r="S75" s="45"/>
-      <c r="T75" s="45"/>
+      <c r="O75" s="44"/>
+      <c r="P75" s="44"/>
+      <c r="Q75" s="44"/>
+      <c r="R75" s="44"/>
+      <c r="S75" s="44"/>
+      <c r="T75" s="44"/>
     </row>
     <row r="83" spans="9:9">
-      <c r="I83" s="49"/>
+      <c r="I83" s="48"/>
     </row>
     <row r="84" spans="9:9">
-      <c r="I84" s="49"/>
+      <c r="I84" s="48"/>
     </row>
     <row r="86" spans="9:9">
-      <c r="I86" s="49"/>
+      <c r="I86" s="48"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
